--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\UAE\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -42,87 +42,88 @@
     <sheet name="CreateTimesheet" sheetId="9" r:id="rId28"/>
     <sheet name="EmployeeCreation" sheetId="5" r:id="rId29"/>
     <sheet name="UserCreation" sheetId="6" r:id="rId30"/>
-    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId31"/>
-    <sheet name="ChangeEmployee" sheetId="25" r:id="rId32"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId33"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId34"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId35"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId36"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId37"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId38"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId39"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId40"/>
-    <sheet name="POFromJobBudget" sheetId="115" r:id="rId41"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId42"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId43"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId44"/>
-    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId45"/>
-    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId46"/>
-    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId47"/>
-    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId48"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId49"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId50"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId51"/>
-    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId52"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId53"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId54"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId55"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId56"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId57"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId58"/>
-    <sheet name="VendorInvoice2" sheetId="66" r:id="rId59"/>
-    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId60"/>
-    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId61"/>
-    <sheet name="VendorInvoice3" sheetId="74" r:id="rId62"/>
-    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId63"/>
-    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId64"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId65"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId66"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId67"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId68"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId69"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId70"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId71"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId72"/>
-    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId73"/>
-    <sheet name="PostJournalEntries" sheetId="82" r:id="rId74"/>
-    <sheet name="CreateReverseGL" sheetId="83" r:id="rId75"/>
-    <sheet name="ReverseGL" sheetId="84" r:id="rId76"/>
-    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId77"/>
-    <sheet name="CopyGL" sheetId="86" r:id="rId78"/>
-    <sheet name="GLMPL" sheetId="87" r:id="rId79"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="112" r:id="rId80"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="113" r:id="rId81"/>
-    <sheet name="InvoicePreparation" sheetId="93" r:id="rId82"/>
-    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId83"/>
-    <sheet name="InvoiceMPL" sheetId="70" r:id="rId84"/>
-    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId85"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId86"/>
-    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId87"/>
-    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId88"/>
-    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId89"/>
-    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId90"/>
-    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId91"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId92"/>
-    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId93"/>
-    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId94"/>
-    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId95"/>
-    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId96"/>
-    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId97"/>
-    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId98"/>
-    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId99"/>
-    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId100"/>
-    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId101"/>
-    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId102"/>
-    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId103"/>
-    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId104"/>
-    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId105"/>
-    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId106"/>
-    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId107"/>
-    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId108"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId109"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId110"/>
-    <sheet name="CreateCompanyVendor" sheetId="114" r:id="rId111"/>
+    <sheet name="BlockUser" sheetId="116" r:id="rId31"/>
+    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId32"/>
+    <sheet name="ChangeEmployee" sheetId="25" r:id="rId33"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId34"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId35"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId36"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId37"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId38"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId39"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId40"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId41"/>
+    <sheet name="POFromJobBudget" sheetId="115" r:id="rId42"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId43"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId44"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId45"/>
+    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId46"/>
+    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId47"/>
+    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId48"/>
+    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId49"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId50"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId51"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId52"/>
+    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId53"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId54"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId55"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId56"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId57"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId58"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId59"/>
+    <sheet name="VendorInvoice2" sheetId="66" r:id="rId60"/>
+    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId61"/>
+    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId62"/>
+    <sheet name="VendorInvoice3" sheetId="74" r:id="rId63"/>
+    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId64"/>
+    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId65"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId66"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId67"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId68"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId69"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId70"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId71"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId72"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId73"/>
+    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId74"/>
+    <sheet name="PostJournalEntries" sheetId="82" r:id="rId75"/>
+    <sheet name="CreateReverseGL" sheetId="83" r:id="rId76"/>
+    <sheet name="ReverseGL" sheetId="84" r:id="rId77"/>
+    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId78"/>
+    <sheet name="CopyGL" sheetId="86" r:id="rId79"/>
+    <sheet name="GLMPL" sheetId="87" r:id="rId80"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="112" r:id="rId81"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="113" r:id="rId82"/>
+    <sheet name="InvoicePreparation" sheetId="93" r:id="rId83"/>
+    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId84"/>
+    <sheet name="InvoiceMPL" sheetId="70" r:id="rId85"/>
+    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId86"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId87"/>
+    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId88"/>
+    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId89"/>
+    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId90"/>
+    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId91"/>
+    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId92"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId93"/>
+    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId94"/>
+    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId95"/>
+    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId96"/>
+    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId97"/>
+    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId98"/>
+    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId99"/>
+    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId100"/>
+    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId101"/>
+    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId102"/>
+    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId103"/>
+    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId104"/>
+    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId105"/>
+    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId106"/>
+    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId107"/>
+    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId108"/>
+    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId109"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId110"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId111"/>
+    <sheet name="CreateCompanyVendor" sheetId="114" r:id="rId112"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="1532">
   <si>
     <t>Description</t>
   </si>
@@ -4718,6 +4719,18 @@
   </si>
   <si>
     <t>UAE</t>
+  </si>
+  <si>
+    <t>2025AutomationUser</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>2111</t>
   </si>
 </sst>
 </file>
@@ -5755,7 +5768,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5768,7 +5781,7 @@
     <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
@@ -5776,44 +5789,35 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>685</v>
       </c>
-      <c r="B2" s="108"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>750</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>748</v>
       </c>
       <c r="B5" s="55"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>686</v>
-      </c>
-      <c r="B6" s="109"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>687</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5862,8 +5866,8 @@
       <c r="A4" t="s">
         <v>750</v>
       </c>
-      <c r="B4" s="55">
-        <v>98537964156</v>
+      <c r="B4" s="55" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5874,13 +5878,13 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1283</v>
+        <v>686</v>
       </c>
       <c r="B6" s="109"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1269</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -5890,6 +5894,74 @@
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="108"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" s="55">
+        <v>98537964156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B6" s="109"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -5958,92 +6030,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="87">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>686</v>
-      </c>
-      <c r="B4" s="109"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>748</v>
-      </c>
-      <c r="B10" s="86"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6086,6 +6072,92 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="109"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B10" s="86"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="87">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1283</v>
       </c>
       <c r="B4" s="109"/>
@@ -6130,7 +6202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6184,7 +6256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6238,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6282,7 +6354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6328,63 +6400,6 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="82">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>685</v>
-      </c>
-      <c r="B2" s="56"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="B4" s="83"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -6669,6 +6684,63 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="82">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="83"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6708,7 +6780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -11671,6 +11743,48 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
@@ -12157,7 +12271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12287,7 +12401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12379,7 +12493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12690,7 +12804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12730,7 +12844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12777,7 +12891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12813,7 +12927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12870,7 +12984,2061 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B254"/>
+  <sheetViews>
+    <sheetView topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>293</v>
+      </c>
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>340</v>
+      </c>
+      <c r="B56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>360</v>
+      </c>
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>364</v>
+      </c>
+      <c r="B70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>366</v>
+      </c>
+      <c r="B71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>367</v>
+      </c>
+      <c r="B72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>383</v>
+      </c>
+      <c r="B82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>384</v>
+      </c>
+      <c r="B83" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>391</v>
+      </c>
+      <c r="B88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>397</v>
+      </c>
+      <c r="B92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>399</v>
+      </c>
+      <c r="B93" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>404</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>405</v>
+      </c>
+      <c r="B98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>406</v>
+      </c>
+      <c r="B99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>408</v>
+      </c>
+      <c r="B100" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>410</v>
+      </c>
+      <c r="B101" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>412</v>
+      </c>
+      <c r="B102" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>413</v>
+      </c>
+      <c r="B103" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>415</v>
+      </c>
+      <c r="B104" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>421</v>
+      </c>
+      <c r="B107" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>423</v>
+      </c>
+      <c r="B108" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>425</v>
+      </c>
+      <c r="B109" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>427</v>
+      </c>
+      <c r="B110" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>431</v>
+      </c>
+      <c r="B112" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>433</v>
+      </c>
+      <c r="B113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>434</v>
+      </c>
+      <c r="B114" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>436</v>
+      </c>
+      <c r="B115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>439</v>
+      </c>
+      <c r="B117" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>441</v>
+      </c>
+      <c r="B118" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>443</v>
+      </c>
+      <c r="B119" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>447</v>
+      </c>
+      <c r="B121" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>449</v>
+      </c>
+      <c r="B122" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>451</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>452</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>453</v>
+      </c>
+      <c r="B125" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>455</v>
+      </c>
+      <c r="B126" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>457</v>
+      </c>
+      <c r="B127" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>459</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>460</v>
+      </c>
+      <c r="B129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>462</v>
+      </c>
+      <c r="B130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>464</v>
+      </c>
+      <c r="B131" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>466</v>
+      </c>
+      <c r="B132" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>468</v>
+      </c>
+      <c r="B133" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>470</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>471</v>
+      </c>
+      <c r="B135" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>472</v>
+      </c>
+      <c r="B136" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>474</v>
+      </c>
+      <c r="B137" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>476</v>
+      </c>
+      <c r="B138" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>478</v>
+      </c>
+      <c r="B139" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>480</v>
+      </c>
+      <c r="B140" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>482</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>483</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>485</v>
+      </c>
+      <c r="B144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>486</v>
+      </c>
+      <c r="B145" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>488</v>
+      </c>
+      <c r="B146" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>490</v>
+      </c>
+      <c r="B147" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>493</v>
+      </c>
+      <c r="B149" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>494</v>
+      </c>
+      <c r="B150" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>496</v>
+      </c>
+      <c r="B151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>497</v>
+      </c>
+      <c r="B152" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>499</v>
+      </c>
+      <c r="B153" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>500</v>
+      </c>
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>501</v>
+      </c>
+      <c r="B155" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>503</v>
+      </c>
+      <c r="B156" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>505</v>
+      </c>
+      <c r="B157" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>507</v>
+      </c>
+      <c r="B158" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>509</v>
+      </c>
+      <c r="B159" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>510</v>
+      </c>
+      <c r="B160" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>512</v>
+      </c>
+      <c r="B161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>513</v>
+      </c>
+      <c r="B162" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>514</v>
+      </c>
+      <c r="B163" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>515</v>
+      </c>
+      <c r="B164" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>517</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>518</v>
+      </c>
+      <c r="B166" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>520</v>
+      </c>
+      <c r="B167" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>521</v>
+      </c>
+      <c r="B168" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>522</v>
+      </c>
+      <c r="B169" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>523</v>
+      </c>
+      <c r="B170" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>525</v>
+      </c>
+      <c r="B171" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>527</v>
+      </c>
+      <c r="B172" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>529</v>
+      </c>
+      <c r="B173" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>531</v>
+      </c>
+      <c r="B174" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>533</v>
+      </c>
+      <c r="B175" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>534</v>
+      </c>
+      <c r="B176" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>535</v>
+      </c>
+      <c r="B177" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>536</v>
+      </c>
+      <c r="B178" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>538</v>
+      </c>
+      <c r="B179" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>540</v>
+      </c>
+      <c r="B180" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>542</v>
+      </c>
+      <c r="B181" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>544</v>
+      </c>
+      <c r="B182" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>547</v>
+      </c>
+      <c r="B184" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>548</v>
+      </c>
+      <c r="B185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>549</v>
+      </c>
+      <c r="B186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>551</v>
+      </c>
+      <c r="B187" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>552</v>
+      </c>
+      <c r="B188" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>554</v>
+      </c>
+      <c r="B189" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>556</v>
+      </c>
+      <c r="B190" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>558</v>
+      </c>
+      <c r="B191" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>559</v>
+      </c>
+      <c r="B192" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>560</v>
+      </c>
+      <c r="B193" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>561</v>
+      </c>
+      <c r="B194" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>563</v>
+      </c>
+      <c r="B196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>564</v>
+      </c>
+      <c r="B197" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>565</v>
+      </c>
+      <c r="B198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>568</v>
+      </c>
+      <c r="B200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>569</v>
+      </c>
+      <c r="B201" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>571</v>
+      </c>
+      <c r="B202" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>573</v>
+      </c>
+      <c r="B203" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>574</v>
+      </c>
+      <c r="B204" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>576</v>
+      </c>
+      <c r="B205" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>578</v>
+      </c>
+      <c r="B206" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>580</v>
+      </c>
+      <c r="B207" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>582</v>
+      </c>
+      <c r="B208" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>583</v>
+      </c>
+      <c r="B209" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>584</v>
+      </c>
+      <c r="B210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>585</v>
+      </c>
+      <c r="B211" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>586</v>
+      </c>
+      <c r="B212" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>588</v>
+      </c>
+      <c r="B213" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>590</v>
+      </c>
+      <c r="B214" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>592</v>
+      </c>
+      <c r="B215" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>593</v>
+      </c>
+      <c r="B216" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>595</v>
+      </c>
+      <c r="B217" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>597</v>
+      </c>
+      <c r="B218" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>599</v>
+      </c>
+      <c r="B219" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>601</v>
+      </c>
+      <c r="B220" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>603</v>
+      </c>
+      <c r="B221" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>604</v>
+      </c>
+      <c r="B222" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>606</v>
+      </c>
+      <c r="B223" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>607</v>
+      </c>
+      <c r="B224" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>609</v>
+      </c>
+      <c r="B225" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>611</v>
+      </c>
+      <c r="B226" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>613</v>
+      </c>
+      <c r="B227" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>615</v>
+      </c>
+      <c r="B228" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>617</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>618</v>
+      </c>
+      <c r="B230" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>619</v>
+      </c>
+      <c r="B231" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>620</v>
+      </c>
+      <c r="B232" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>622</v>
+      </c>
+      <c r="B233" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>624</v>
+      </c>
+      <c r="B234" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>625</v>
+      </c>
+      <c r="B235" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>627</v>
+      </c>
+      <c r="B236" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>629</v>
+      </c>
+      <c r="B237" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>631</v>
+      </c>
+      <c r="B238" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>632</v>
+      </c>
+      <c r="B239" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>633</v>
+      </c>
+      <c r="B240" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>635</v>
+      </c>
+      <c r="B241" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B242" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>638</v>
+      </c>
+      <c r="B243" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>640</v>
+      </c>
+      <c r="B244" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>641</v>
+      </c>
+      <c r="B245" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>643</v>
+      </c>
+      <c r="B246" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>645</v>
+      </c>
+      <c r="B247" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>646</v>
+      </c>
+      <c r="B248" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>648</v>
+      </c>
+      <c r="B249" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>650</v>
+      </c>
+      <c r="B250" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>651</v>
+      </c>
+      <c r="B251" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>652</v>
+      </c>
+      <c r="B252" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>654</v>
+      </c>
+      <c r="B253" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>656</v>
+      </c>
+      <c r="B254" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12921,2061 +15089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:B254"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>287</v>
-      </c>
-      <c r="B25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>298</v>
-      </c>
-      <c r="B31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>300</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>313</v>
-      </c>
-      <c r="B39" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>317</v>
-      </c>
-      <c r="B42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>320</v>
-      </c>
-      <c r="B44" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>322</v>
-      </c>
-      <c r="B45" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>326</v>
-      </c>
-      <c r="B47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>330</v>
-      </c>
-      <c r="B49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>333</v>
-      </c>
-      <c r="B51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>334</v>
-      </c>
-      <c r="B52" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>335</v>
-      </c>
-      <c r="B53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>337</v>
-      </c>
-      <c r="B54" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>339</v>
-      </c>
-      <c r="B55" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>340</v>
-      </c>
-      <c r="B56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>341</v>
-      </c>
-      <c r="B57" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>343</v>
-      </c>
-      <c r="B58" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>347</v>
-      </c>
-      <c r="B60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>357</v>
-      </c>
-      <c r="B66" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>359</v>
-      </c>
-      <c r="B67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>360</v>
-      </c>
-      <c r="B68" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>362</v>
-      </c>
-      <c r="B69" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>364</v>
-      </c>
-      <c r="B70" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>366</v>
-      </c>
-      <c r="B71" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>367</v>
-      </c>
-      <c r="B72" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>369</v>
-      </c>
-      <c r="B73" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>373</v>
-      </c>
-      <c r="B76" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>374</v>
-      </c>
-      <c r="B77" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>376</v>
-      </c>
-      <c r="B78" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>377</v>
-      </c>
-      <c r="B79" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>379</v>
-      </c>
-      <c r="B80" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>381</v>
-      </c>
-      <c r="B81" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>383</v>
-      </c>
-      <c r="B82" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>384</v>
-      </c>
-      <c r="B83" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>386</v>
-      </c>
-      <c r="B84" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>387</v>
-      </c>
-      <c r="B85" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>388</v>
-      </c>
-      <c r="B86" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>389</v>
-      </c>
-      <c r="B87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>391</v>
-      </c>
-      <c r="B88" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>392</v>
-      </c>
-      <c r="B89" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>394</v>
-      </c>
-      <c r="B90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>396</v>
-      </c>
-      <c r="B91" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>397</v>
-      </c>
-      <c r="B92" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>399</v>
-      </c>
-      <c r="B93" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>401</v>
-      </c>
-      <c r="B94" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>402</v>
-      </c>
-      <c r="B95" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>403</v>
-      </c>
-      <c r="B96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>404</v>
-      </c>
-      <c r="B97" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>405</v>
-      </c>
-      <c r="B98" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>406</v>
-      </c>
-      <c r="B99" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>408</v>
-      </c>
-      <c r="B100" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>410</v>
-      </c>
-      <c r="B101" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>412</v>
-      </c>
-      <c r="B102" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>413</v>
-      </c>
-      <c r="B103" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>415</v>
-      </c>
-      <c r="B104" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>417</v>
-      </c>
-      <c r="B105" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>419</v>
-      </c>
-      <c r="B106" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>421</v>
-      </c>
-      <c r="B107" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>423</v>
-      </c>
-      <c r="B108" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>425</v>
-      </c>
-      <c r="B109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>427</v>
-      </c>
-      <c r="B110" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>429</v>
-      </c>
-      <c r="B111" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>431</v>
-      </c>
-      <c r="B112" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>433</v>
-      </c>
-      <c r="B113" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>434</v>
-      </c>
-      <c r="B114" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>436</v>
-      </c>
-      <c r="B115" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>438</v>
-      </c>
-      <c r="B116" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>439</v>
-      </c>
-      <c r="B117" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>441</v>
-      </c>
-      <c r="B118" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>443</v>
-      </c>
-      <c r="B119" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>445</v>
-      </c>
-      <c r="B120" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>447</v>
-      </c>
-      <c r="B121" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>449</v>
-      </c>
-      <c r="B122" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>451</v>
-      </c>
-      <c r="B123" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>452</v>
-      </c>
-      <c r="B124" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>453</v>
-      </c>
-      <c r="B125" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>455</v>
-      </c>
-      <c r="B126" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>457</v>
-      </c>
-      <c r="B127" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>459</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>460</v>
-      </c>
-      <c r="B129" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>462</v>
-      </c>
-      <c r="B130" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>464</v>
-      </c>
-      <c r="B131" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>466</v>
-      </c>
-      <c r="B132" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>468</v>
-      </c>
-      <c r="B133" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>470</v>
-      </c>
-      <c r="B134" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>471</v>
-      </c>
-      <c r="B135" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>472</v>
-      </c>
-      <c r="B136" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>474</v>
-      </c>
-      <c r="B137" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>476</v>
-      </c>
-      <c r="B138" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>478</v>
-      </c>
-      <c r="B139" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>480</v>
-      </c>
-      <c r="B140" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>482</v>
-      </c>
-      <c r="B141" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>483</v>
-      </c>
-      <c r="B142" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>484</v>
-      </c>
-      <c r="B143" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>485</v>
-      </c>
-      <c r="B144" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>486</v>
-      </c>
-      <c r="B145" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>488</v>
-      </c>
-      <c r="B146" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>490</v>
-      </c>
-      <c r="B147" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>491</v>
-      </c>
-      <c r="B148" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>493</v>
-      </c>
-      <c r="B149" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>494</v>
-      </c>
-      <c r="B150" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>496</v>
-      </c>
-      <c r="B151" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>497</v>
-      </c>
-      <c r="B152" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>499</v>
-      </c>
-      <c r="B153" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>500</v>
-      </c>
-      <c r="B154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>501</v>
-      </c>
-      <c r="B155" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>503</v>
-      </c>
-      <c r="B156" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>505</v>
-      </c>
-      <c r="B157" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>507</v>
-      </c>
-      <c r="B158" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>509</v>
-      </c>
-      <c r="B159" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>510</v>
-      </c>
-      <c r="B160" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>512</v>
-      </c>
-      <c r="B161" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>513</v>
-      </c>
-      <c r="B162" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>514</v>
-      </c>
-      <c r="B163" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>515</v>
-      </c>
-      <c r="B164" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>517</v>
-      </c>
-      <c r="B165" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>518</v>
-      </c>
-      <c r="B166" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>520</v>
-      </c>
-      <c r="B167" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>521</v>
-      </c>
-      <c r="B168" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>522</v>
-      </c>
-      <c r="B169" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>523</v>
-      </c>
-      <c r="B170" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>525</v>
-      </c>
-      <c r="B171" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>527</v>
-      </c>
-      <c r="B172" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>529</v>
-      </c>
-      <c r="B173" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>531</v>
-      </c>
-      <c r="B174" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>533</v>
-      </c>
-      <c r="B175" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>534</v>
-      </c>
-      <c r="B176" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>535</v>
-      </c>
-      <c r="B177" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>536</v>
-      </c>
-      <c r="B178" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>538</v>
-      </c>
-      <c r="B179" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>540</v>
-      </c>
-      <c r="B180" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>542</v>
-      </c>
-      <c r="B181" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>544</v>
-      </c>
-      <c r="B182" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>545</v>
-      </c>
-      <c r="B183" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>547</v>
-      </c>
-      <c r="B184" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>548</v>
-      </c>
-      <c r="B185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>549</v>
-      </c>
-      <c r="B186" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>551</v>
-      </c>
-      <c r="B187" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>552</v>
-      </c>
-      <c r="B188" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>554</v>
-      </c>
-      <c r="B189" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>556</v>
-      </c>
-      <c r="B190" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>558</v>
-      </c>
-      <c r="B191" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>559</v>
-      </c>
-      <c r="B192" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>560</v>
-      </c>
-      <c r="B193" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>561</v>
-      </c>
-      <c r="B194" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>562</v>
-      </c>
-      <c r="B195" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>563</v>
-      </c>
-      <c r="B196" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>564</v>
-      </c>
-      <c r="B197" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>565</v>
-      </c>
-      <c r="B198" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>566</v>
-      </c>
-      <c r="B199" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>568</v>
-      </c>
-      <c r="B200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>569</v>
-      </c>
-      <c r="B201" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>571</v>
-      </c>
-      <c r="B202" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>573</v>
-      </c>
-      <c r="B203" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>574</v>
-      </c>
-      <c r="B204" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>576</v>
-      </c>
-      <c r="B205" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>578</v>
-      </c>
-      <c r="B206" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>580</v>
-      </c>
-      <c r="B207" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>582</v>
-      </c>
-      <c r="B208" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>583</v>
-      </c>
-      <c r="B209" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>584</v>
-      </c>
-      <c r="B210" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>585</v>
-      </c>
-      <c r="B211" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>586</v>
-      </c>
-      <c r="B212" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>588</v>
-      </c>
-      <c r="B213" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>590</v>
-      </c>
-      <c r="B214" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>592</v>
-      </c>
-      <c r="B215" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>593</v>
-      </c>
-      <c r="B216" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>595</v>
-      </c>
-      <c r="B217" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>597</v>
-      </c>
-      <c r="B218" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>599</v>
-      </c>
-      <c r="B219" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>601</v>
-      </c>
-      <c r="B220" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>603</v>
-      </c>
-      <c r="B221" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>604</v>
-      </c>
-      <c r="B222" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>606</v>
-      </c>
-      <c r="B223" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>607</v>
-      </c>
-      <c r="B224" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>609</v>
-      </c>
-      <c r="B225" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>611</v>
-      </c>
-      <c r="B226" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>613</v>
-      </c>
-      <c r="B227" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>615</v>
-      </c>
-      <c r="B228" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>617</v>
-      </c>
-      <c r="B229" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>618</v>
-      </c>
-      <c r="B230" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>619</v>
-      </c>
-      <c r="B231" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>620</v>
-      </c>
-      <c r="B232" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>622</v>
-      </c>
-      <c r="B233" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>624</v>
-      </c>
-      <c r="B234" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>625</v>
-      </c>
-      <c r="B235" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>627</v>
-      </c>
-      <c r="B236" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>629</v>
-      </c>
-      <c r="B237" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>631</v>
-      </c>
-      <c r="B238" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>632</v>
-      </c>
-      <c r="B239" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>633</v>
-      </c>
-      <c r="B240" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>635</v>
-      </c>
-      <c r="B241" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B242" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>638</v>
-      </c>
-      <c r="B243" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>640</v>
-      </c>
-      <c r="B244" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>641</v>
-      </c>
-      <c r="B245" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>643</v>
-      </c>
-      <c r="B246" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>645</v>
-      </c>
-      <c r="B247" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>646</v>
-      </c>
-      <c r="B248" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>648</v>
-      </c>
-      <c r="B249" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>650</v>
-      </c>
-      <c r="B250" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>651</v>
-      </c>
-      <c r="B251" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>652</v>
-      </c>
-      <c r="B252" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>654</v>
-      </c>
-      <c r="B253" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>656</v>
-      </c>
-      <c r="B254" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15238,7 +15352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15434,7 +15548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15639,7 +15753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15675,7 +15789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15730,7 +15844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15942,7 +16056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15987,7 +16101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16199,7 +16313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16236,117 +16350,6 @@
       </c>
       <c r="B3">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1">
-        <v>1319</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1319</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>908</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>1319</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>909</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -16512,6 +16515,117 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1">
+        <v>1319</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1319</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>1319</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>909</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16590,7 +16704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16676,7 +16790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16746,7 +16860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16816,7 +16930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16887,7 +17001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -16994,7 +17108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17035,7 +17149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17070,7 +17184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17115,87 +17229,6 @@
         <v>250</v>
       </c>
       <c r="B4" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>959</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1319</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>982</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>982</v>
-      </c>
-      <c r="G2" t="s">
-        <v>983</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>983</v>
-      </c>
-      <c r="I2" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17383,6 +17416,87 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1319</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>982</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>982</v>
+      </c>
+      <c r="G2" t="s">
+        <v>983</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>983</v>
+      </c>
+      <c r="I2" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17422,7 +17536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17473,7 +17587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17554,7 +17668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17598,7 +17712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17649,7 +17763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17721,7 +17835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17798,7 +17912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17847,7 +17961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17925,86 +18039,6 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="27">
-        <v>131885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -18368,6 +18402,86 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="27">
+        <v>131885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18434,7 +18548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -18620,7 +18734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -18767,7 +18881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -18946,7 +19060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -18983,7 +19097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -19106,7 +19220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19149,7 +19263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -19185,7 +19299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19218,293 +19332,6 @@
       </c>
       <c r="B3" s="93" t="s">
         <v>1113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="U1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="X1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>1319</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>730</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K2" t="s">
-        <v>958</v>
-      </c>
-      <c r="L2" t="s">
-        <v>773</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>835</v>
-      </c>
-      <c r="O2" t="s">
-        <v>823</v>
-      </c>
-      <c r="P2" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="S2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="U2" t="s">
-        <v>237</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>835</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>699</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D3" t="s">
-        <v>730</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K3" t="s">
-        <v>958</v>
-      </c>
-      <c r="L3" t="s">
-        <v>773</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P3" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1265</v>
-      </c>
-      <c r="U3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1197</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>699</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -19994,6 +19821,293 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="U1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L2" t="s">
+        <v>773</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>835</v>
+      </c>
+      <c r="O2" t="s">
+        <v>823</v>
+      </c>
+      <c r="P2" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>237</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>730</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K3" t="s">
+        <v>958</v>
+      </c>
+      <c r="L3" t="s">
+        <v>773</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="P3" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="U3" t="s">
+        <v>237</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20085,7 +20199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -20215,7 +20329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -20304,7 +20418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -20406,7 +20520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO4"/>
   <sheetViews>
@@ -20949,7 +21063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY3"/>
   <sheetViews>
@@ -21444,7 +21558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21481,7 +21595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -21561,7 +21675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -21858,7 +21972,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="68"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="68"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -22155,174 +22436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="68"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="68"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -22424,7 +22538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -22572,7 +22686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -22709,7 +22823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -22829,7 +22943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -22969,7 +23083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -23103,7 +23217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -23250,7 +23364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -23406,7 +23520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -23560,63 +23674,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>748</v>
-      </c>
-      <c r="B5" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="58" activeTab="61"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="87" activeTab="90"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -102,28 +102,29 @@
     <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId88"/>
     <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId89"/>
     <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId90"/>
-    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId91"/>
-    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId92"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId93"/>
-    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId94"/>
-    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId95"/>
-    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId96"/>
-    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId97"/>
-    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId98"/>
-    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId99"/>
-    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId100"/>
-    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId101"/>
-    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId102"/>
-    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId103"/>
-    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId104"/>
-    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId105"/>
-    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId106"/>
-    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId107"/>
-    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId108"/>
-    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId109"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId110"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId111"/>
-    <sheet name="CreateCompanyVendor" sheetId="114" r:id="rId112"/>
+    <sheet name="CombinedInvoice" sheetId="117" r:id="rId91"/>
+    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId92"/>
+    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId93"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId94"/>
+    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId95"/>
+    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId96"/>
+    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId97"/>
+    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId98"/>
+    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId99"/>
+    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId100"/>
+    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId101"/>
+    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId102"/>
+    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId103"/>
+    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId104"/>
+    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId105"/>
+    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId106"/>
+    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId107"/>
+    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId108"/>
+    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId109"/>
+    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId110"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId111"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId112"/>
+    <sheet name="CreateCompanyVendor" sheetId="114" r:id="rId113"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="1525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1530">
   <si>
     <t>Description</t>
   </si>
@@ -4710,6 +4711,21 @@
   </si>
   <si>
     <t>RevCreditNote</t>
+  </si>
+  <si>
+    <t>JobCreation5</t>
+  </si>
+  <si>
+    <t>JobBudgetCreation5</t>
+  </si>
+  <si>
+    <t>CreateQuote5</t>
+  </si>
+  <si>
+    <t>12849905</t>
+  </si>
+  <si>
+    <t>12219905</t>
   </si>
 </sst>
 </file>
@@ -5739,6 +5755,162 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="85">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>769</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>771</v>
+      </c>
+      <c r="B16" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5789,74 +5961,6 @@
         <v>733</v>
       </c>
       <c r="B5" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2" s="106"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>733</v>
-      </c>
-      <c r="B5" s="55"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>671</v>
-      </c>
-      <c r="B6" s="107"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>672</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,8 +6009,8 @@
       <c r="A4" t="s">
         <v>735</v>
       </c>
-      <c r="B4" s="55">
-        <v>98537964156</v>
+      <c r="B4" s="55" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5917,13 +6021,13 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1268</v>
+        <v>671</v>
       </c>
       <c r="B6" s="107"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1254</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -5933,6 +6037,74 @@
 </file>
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B4" s="55">
+        <v>98537964156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B6" s="107"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -6001,92 +6173,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="85">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B4" s="107"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>733</v>
-      </c>
-      <c r="B10" s="84"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6129,6 +6215,92 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="107"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>733</v>
+      </c>
+      <c r="B10" s="84"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="85">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1268</v>
       </c>
       <c r="B4" s="107"/>
@@ -6173,7 +6345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6227,7 +6399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6281,7 +6453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6318,60 +6490,6 @@
         <v>464</v>
       </c>
       <c r="D3" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="85">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B4" s="107"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1254</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6652,6 +6770,60 @@
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="85">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B4" s="107"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6707,7 +6879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6751,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -17533,7 +17705,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22290,6 +22462,78 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1221</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="F3" s="55" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22390,7 +22634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -22538,7 +22782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -22675,7 +22919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -22795,7 +23039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -22935,7 +23179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -23069,7 +23313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -23216,7 +23460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -23370,160 +23614,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="85">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>670</v>
-      </c>
-      <c r="B3" s="55"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>718</v>
-      </c>
-      <c r="B5" s="55"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>769</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>773</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>771</v>
-      </c>
-      <c r="B16" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\March Reg 2021\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="138" activeTab="141"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6163" uniqueCount="1811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="1813">
   <si>
     <t>Description</t>
   </si>
@@ -4534,9 +4534,6 @@
   </si>
   <si>
     <t>Company Vendor Name</t>
-  </si>
-  <si>
-    <t>万宝盛华企业管理咨询（上海）有限公司</t>
   </si>
   <si>
     <t>CH1001</t>
@@ -5191,16 +5188,10 @@
     <t>2128_AED_Billable_Price_List</t>
   </si>
   <si>
-    <t>05/30/2020</t>
-  </si>
-  <si>
     <t>6543202</t>
   </si>
   <si>
     <t>2128_GlobalVendor</t>
-  </si>
-  <si>
-    <t>BB001</t>
   </si>
   <si>
     <t>D113</t>
@@ -5604,6 +5595,21 @@
   </si>
   <si>
     <t>Zip Code</t>
+  </si>
+  <si>
+    <t>05/30/2021</t>
+  </si>
+  <si>
+    <t>BB011111</t>
+  </si>
+  <si>
+    <t>BB001111</t>
+  </si>
+  <si>
+    <t>1009128</t>
+  </si>
+  <si>
+    <t>GlobalCompanyVendor</t>
   </si>
 </sst>
 </file>
@@ -6431,10 +6437,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -6457,10 +6463,10 @@
         <v>818</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6468,10 +6474,10 @@
         <v>819</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -6569,7 +6575,7 @@
         <v>1043</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6593,10 +6599,10 @@
         <v>1029</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6630,7 +6636,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +6644,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6651,7 +6657,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B4" t="s">
         <v>797</v>
@@ -6659,42 +6665,42 @@
     </row>
     <row r="5" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B9" s="105" t="s">
         <v>1613</v>
-      </c>
-      <c r="B9" s="105" t="s">
-        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -6944,7 +6950,7 @@
         <v>220</v>
       </c>
       <c r="O6" s="102" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="P6" s="105" t="s">
         <v>1011</v>
@@ -7134,7 +7140,7 @@
         <v>1284</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F3" t="s">
         <v>1018</v>
@@ -7169,7 +7175,7 @@
         <v>2128</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>1018</v>
@@ -7190,7 +7196,7 @@
         <v>220</v>
       </c>
       <c r="P4" s="102" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="Q4" s="105" t="s">
         <v>1021</v>
@@ -7231,7 +7237,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7249,10 +7255,10 @@
         <v>1025</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -7287,7 +7293,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7298,10 +7304,10 @@
         <v>1025</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
@@ -7339,7 +7345,7 @@
         <v>1226</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7357,13 +7363,13 @@
         <v>1025</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D3" s="106" t="s">
         <v>1201</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -7489,28 +7495,28 @@
         <v>1094</v>
       </c>
       <c r="B4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D4" t="s">
         <v>817</v>
       </c>
       <c r="E4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H4" t="s">
         <v>1512</v>
       </c>
-      <c r="F4" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1513</v>
-      </c>
       <c r="I4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J4" t="s">
         <v>1019</v>
@@ -7534,16 +7540,16 @@
         <v>797</v>
       </c>
       <c r="Q4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R4" t="s">
         <v>1197</v>
       </c>
       <c r="S4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="T4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="U4" t="s">
         <v>220</v>
@@ -7552,7 +7558,7 @@
         <v>1017</v>
       </c>
       <c r="W4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="X4" t="s">
         <v>1020</v>
@@ -7570,7 +7576,7 @@
         <v>1197</v>
       </c>
       <c r="AC4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -7580,31 +7586,31 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B6" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C6" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D6" t="s">
         <v>817</v>
       </c>
       <c r="E6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F6" t="s">
         <v>1559</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>1560</v>
       </c>
-      <c r="G6" t="s">
-        <v>1561</v>
-      </c>
       <c r="H6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J6" t="s">
         <v>1019</v>
@@ -7619,7 +7625,7 @@
         <v>1018</v>
       </c>
       <c r="N6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="O6" t="s">
         <v>1058</v>
@@ -7628,31 +7634,31 @@
         <v>797</v>
       </c>
       <c r="Q6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R6" t="s">
         <v>1197</v>
       </c>
       <c r="S6" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="T6" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="U6" t="s">
         <v>220</v>
       </c>
       <c r="V6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="W6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="X6" t="s">
         <v>1020</v>
       </c>
       <c r="Y6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="Z6" t="s">
         <v>1058</v>
@@ -7664,36 +7670,36 @@
         <v>1197</v>
       </c>
       <c r="AC6" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F7" t="s">
         <v>1761</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>1762</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1765</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
       </c>
       <c r="I7" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="J7" t="s">
         <v>1019</v>
@@ -7708,16 +7714,16 @@
         <v>1018</v>
       </c>
       <c r="N7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="O7" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="P7" t="s">
         <v>797</v>
       </c>
       <c r="Q7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R7" t="s">
         <v>1197</v>
@@ -7726,25 +7732,25 @@
         <v>1134</v>
       </c>
       <c r="T7" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="U7" t="s">
         <v>220</v>
       </c>
       <c r="V7" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="W7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="X7" t="s">
         <v>1020</v>
       </c>
       <c r="Y7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="Z7" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AA7" t="s">
         <v>797</v>
@@ -7753,7 +7759,7 @@
         <v>1197</v>
       </c>
       <c r="AC7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
   </sheetData>
@@ -7882,7 +7888,7 @@
         <v>903</v>
       </c>
       <c r="P2" s="105" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,16 +7926,16 @@
         <v>1196</v>
       </c>
       <c r="M3" s="102" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="O3" s="105" t="s">
         <v>903</v>
       </c>
       <c r="P3" s="105" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -8023,7 +8029,7 @@
         <v>174</v>
       </c>
       <c r="K2" s="105" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,13 +8052,13 @@
         <v>965</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="J3" s="105" t="s">
         <v>174</v>
       </c>
       <c r="K3" s="105" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
   </sheetData>
@@ -8117,10 +8123,10 @@
         <v>1044</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -8297,10 +8303,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
   </sheetData>
@@ -8333,7 +8339,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8352,7 +8358,7 @@
         <v>1116</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -8649,19 +8655,19 @@
         <v>1088</v>
       </c>
       <c r="C4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D4" t="s">
         <v>1475</v>
       </c>
-      <c r="D4" t="s">
-        <v>1476</v>
-      </c>
       <c r="E4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F4" t="s">
         <v>1361</v>
       </c>
       <c r="G4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H4" t="s">
         <v>1122</v>
@@ -8670,7 +8676,7 @@
         <v>1124</v>
       </c>
       <c r="J4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="K4" t="s">
         <v>1090</v>
@@ -8679,16 +8685,16 @@
         <v>1234</v>
       </c>
       <c r="M4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N4" t="s">
         <v>1479</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1480</v>
       </c>
       <c r="O4" t="s">
         <v>1361</v>
       </c>
       <c r="P4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="Q4" t="s">
         <v>1122</v>
@@ -8697,25 +8703,25 @@
         <v>1124</v>
       </c>
       <c r="S4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="T4" t="s">
         <v>1092</v>
       </c>
       <c r="U4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="V4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="W4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="X4" t="s">
         <v>1361</v>
       </c>
       <c r="Y4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="Z4" t="s">
         <v>1122</v>
@@ -8724,25 +8730,25 @@
         <v>1124</v>
       </c>
       <c r="AB4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AC4" t="s">
         <v>1093</v>
       </c>
       <c r="AD4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AE4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AF4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="AG4" t="s">
         <v>1361</v>
       </c>
       <c r="AH4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="AI4" t="s">
         <v>1122</v>
@@ -8751,25 +8757,25 @@
         <v>1124</v>
       </c>
       <c r="AK4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AL4" t="s">
         <v>941</v>
       </c>
       <c r="AM4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="AN4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AO4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AP4" t="s">
         <v>1361</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AR4" t="s">
         <v>1122</v>
@@ -8778,7 +8784,7 @@
         <v>1124</v>
       </c>
       <c r="AT4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AU4"/>
       <c r="AV4"/>
@@ -8799,10 +8805,10 @@
       <c r="BK4"/>
       <c r="BL4"/>
       <c r="BM4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BN4" t="s">
         <v>1488</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>1489</v>
       </c>
       <c r="BO4" t="s">
         <v>839</v>
@@ -8815,7 +8821,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B6" t="s">
         <v>941</v>
@@ -8827,7 +8833,7 @@
         <v>1192</v>
       </c>
       <c r="E6" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F6" t="s">
         <v>1122</v>
@@ -8836,25 +8842,25 @@
         <v>1124</v>
       </c>
       <c r="H6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I6" t="s">
         <v>1546</v>
       </c>
-      <c r="I6" t="s">
-        <v>1547</v>
-      </c>
       <c r="J6" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K6" t="s">
         <v>1088</v>
       </c>
       <c r="L6" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="M6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="N6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O6" t="s">
         <v>1122</v>
@@ -8863,25 +8869,25 @@
         <v>1124</v>
       </c>
       <c r="Q6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="R6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="S6" t="s">
         <v>1577</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1578</v>
       </c>
       <c r="T6" t="s">
         <v>1089</v>
       </c>
       <c r="U6" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="W6" t="s">
         <v>1579</v>
-      </c>
-      <c r="W6" t="s">
-        <v>1580</v>
       </c>
       <c r="X6" t="s">
         <v>1122</v>
@@ -8890,13 +8896,13 @@
         <v>1124</v>
       </c>
       <c r="Z6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AA6" t="s">
         <v>1581</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>1582</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1583</v>
       </c>
       <c r="AC6" t="s">
         <v>1090</v>
@@ -8905,10 +8911,10 @@
         <v>1234</v>
       </c>
       <c r="AE6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AF6" t="s">
         <v>1479</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>1480</v>
       </c>
       <c r="AG6" t="s">
         <v>1122</v>
@@ -8917,13 +8923,13 @@
         <v>1124</v>
       </c>
       <c r="AI6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AJ6" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AK6" t="s">
         <v>1584</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>1585</v>
       </c>
       <c r="AL6" t="s">
         <v>1091</v>
@@ -8932,10 +8938,10 @@
         <v>1234</v>
       </c>
       <c r="AN6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="AO6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AP6" t="s">
         <v>1122</v>
@@ -8944,13 +8950,13 @@
         <v>1124</v>
       </c>
       <c r="AR6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="AS6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AT6" t="s">
         <v>1587</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>1588</v>
       </c>
       <c r="AU6" t="s">
         <v>1092</v>
@@ -8959,10 +8965,10 @@
         <v>1281</v>
       </c>
       <c r="AW6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="AX6" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AY6" t="s">
         <v>1122</v>
@@ -8971,13 +8977,13 @@
         <v>1124</v>
       </c>
       <c r="BA6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BB6" t="s">
         <v>1590</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>1591</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>1592</v>
       </c>
       <c r="BD6" t="s">
         <v>1093</v>
@@ -8986,10 +8992,10 @@
         <v>1281</v>
       </c>
       <c r="BF6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="BG6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BH6" t="s">
         <v>1122</v>
@@ -8998,27 +9004,27 @@
         <v>1124</v>
       </c>
       <c r="BJ6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BK6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BL6" t="s">
         <v>1593</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BN6" t="s">
         <v>1594</v>
       </c>
-      <c r="BM6" t="s">
-        <v>1567</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>1595</v>
-      </c>
       <c r="BO6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B7" t="s">
         <v>941</v>
@@ -9030,7 +9036,7 @@
         <v>1192</v>
       </c>
       <c r="E7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F7" t="s">
         <v>1134</v>
@@ -9039,25 +9045,25 @@
         <v>1134</v>
       </c>
       <c r="H7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="J7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="K7" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="L7" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="M7" t="s">
         <v>1197</v>
       </c>
       <c r="N7" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="O7" t="s">
         <v>1134</v>
@@ -9066,25 +9072,25 @@
         <v>1134</v>
       </c>
       <c r="Q7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="R7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="S7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="T7" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="U7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V7" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="W7" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="X7" t="s">
         <v>1134</v>
@@ -9093,22 +9099,22 @@
         <v>1134</v>
       </c>
       <c r="Z7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AA7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AB7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="AC7" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="AD7" t="s">
         <v>1234</v>
       </c>
       <c r="AE7" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AF7" t="s">
         <v>1192</v>
@@ -9120,16 +9126,16 @@
         <v>1134</v>
       </c>
       <c r="AI7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AK7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="AL7" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AM7" t="s">
         <v>1234</v>
@@ -9138,7 +9144,7 @@
         <v>1192</v>
       </c>
       <c r="AO7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AP7" t="s">
         <v>1134</v>
@@ -9147,16 +9153,16 @@
         <v>1134</v>
       </c>
       <c r="AR7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AS7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AT7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="AU7" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="AV7" t="s">
         <v>1281</v>
@@ -9174,16 +9180,16 @@
         <v>1134</v>
       </c>
       <c r="BA7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BB7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BC7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="BD7" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="BE7" t="s">
         <v>1281</v>
@@ -9201,19 +9207,19 @@
         <v>1134</v>
       </c>
       <c r="BJ7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BK7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BL7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="BM7" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="BN7" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="BO7" t="s">
         <v>839</v>
@@ -9221,7 +9227,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B8" t="s">
         <v>941</v>
@@ -9233,10 +9239,10 @@
         <v>1192</v>
       </c>
       <c r="E8" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="G8" t="s">
         <v>1134</v>
@@ -9245,94 +9251,94 @@
         <v>1197</v>
       </c>
       <c r="I8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="J8" t="s">
         <v>939</v>
       </c>
       <c r="K8" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="L8" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="M8" t="s">
         <v>1197</v>
       </c>
       <c r="N8" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="O8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="P8" t="s">
         <v>1134</v>
       </c>
       <c r="Q8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W8" t="s">
         <v>1708</v>
       </c>
-      <c r="R8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1743</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1686</v>
-      </c>
-      <c r="U8" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1710</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1711</v>
-      </c>
       <c r="X8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="Y8" t="s">
         <v>1134</v>
       </c>
       <c r="Z8" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AA8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AB8" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="AC8" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="AD8" t="s">
         <v>1234</v>
       </c>
       <c r="AE8" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AF8" t="s">
         <v>1192</v>
       </c>
       <c r="AG8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AH8" t="s">
         <v>1134</v>
       </c>
       <c r="AI8" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AK8" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="AL8" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AM8" t="s">
         <v>1234</v>
@@ -9341,10 +9347,10 @@
         <v>1192</v>
       </c>
       <c r="AO8" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AP8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AQ8" t="s">
         <v>1134</v>
@@ -9353,13 +9359,13 @@
         <v>1197</v>
       </c>
       <c r="AS8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AT8" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="AU8" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="AV8" t="s">
         <v>1281</v>
@@ -9371,22 +9377,22 @@
         <v>1193</v>
       </c>
       <c r="AY8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AZ8" t="s">
         <v>1134</v>
       </c>
       <c r="BA8" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="BB8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BC8" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="BD8" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="BE8" t="s">
         <v>1281</v>
@@ -9398,28 +9404,28 @@
         <v>1194</v>
       </c>
       <c r="BH8" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="BI8" t="s">
         <v>1134</v>
       </c>
       <c r="BJ8" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="BK8" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BL8" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="BM8" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="BN8" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="BO8" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -9495,7 +9501,7 @@
         <v>959</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -9574,7 +9580,7 @@
         <v>1071</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -9714,7 +9720,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K6" s="104" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -9765,7 +9771,7 @@
         <v>1116</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
   </sheetData>
@@ -9903,7 +9909,7 @@
         <v>1312</v>
       </c>
       <c r="K5" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -10017,7 +10023,7 @@
         <v>1397</v>
       </c>
       <c r="K4" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -10380,7 +10386,7 @@
         <v>979</v>
       </c>
       <c r="K4" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L4" s="104" t="s">
         <v>892</v>
@@ -10490,10 +10496,10 @@
         <v>1063</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10532,7 +10538,7 @@
         <v>1043</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10902,7 +10908,7 @@
       </c>
       <c r="J4" s="102"/>
       <c r="K4" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L4" s="104" t="s">
         <v>895</v>
@@ -10987,7 +10993,7 @@
       <c r="C3" s="106"/>
       <c r="D3" s="106"/>
       <c r="F3" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -11020,16 +11026,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C1" s="106" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>1571</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="E1" s="106" t="s">
         <v>1572</v>
-      </c>
-      <c r="E1" s="106" t="s">
-        <v>1573</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>1005</v>
@@ -11081,25 +11087,25 @@
         <v>2128</v>
       </c>
       <c r="C3" s="106" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G3" s="106" t="s">
         <v>1778</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="H3" s="106" t="s">
         <v>1779</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="I3" s="106" t="s">
         <v>1780</v>
       </c>
-      <c r="G3" s="106" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H3" s="106" t="s">
-        <v>1782</v>
-      </c>
-      <c r="I3" s="106" t="s">
-        <v>1783</v>
-      </c>
       <c r="K3" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -11145,7 +11151,7 @@
         <v>1221</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -11369,19 +11375,19 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F2" t="s">
         <v>1122</v>
@@ -11390,25 +11396,25 @@
         <v>1124</v>
       </c>
       <c r="H2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I2" t="s">
         <v>1601</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1602</v>
       </c>
-      <c r="J2" t="s">
-        <v>1603</v>
-      </c>
       <c r="K2" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="L2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="M2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="N2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O2" t="s">
         <v>1122</v>
@@ -11417,25 +11423,25 @@
         <v>1124</v>
       </c>
       <c r="Q2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="R2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="S2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="T2" t="s">
         <v>894</v>
       </c>
       <c r="U2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="V2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="W2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="X2" t="s">
         <v>1122</v>
@@ -11444,25 +11450,25 @@
         <v>1124</v>
       </c>
       <c r="Z2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AA2" t="s">
         <v>1581</v>
       </c>
-      <c r="AA2" t="s">
-        <v>1582</v>
-      </c>
       <c r="AB2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="AC2" t="s">
         <v>896</v>
       </c>
       <c r="AD2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AE2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AF2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="AG2" t="s">
         <v>1122</v>
@@ -11471,25 +11477,25 @@
         <v>1124</v>
       </c>
       <c r="AI2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="AK2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="AL2" t="s">
         <v>897</v>
       </c>
       <c r="AM2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AN2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AO2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="AP2" t="s">
         <v>1122</v>
@@ -11498,25 +11504,25 @@
         <v>1124</v>
       </c>
       <c r="AR2" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="AS2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="AT2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="AU2" t="s">
         <v>803</v>
       </c>
       <c r="AV2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AW2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AX2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AY2" t="s">
         <v>1122</v>
@@ -11525,25 +11531,25 @@
         <v>1124</v>
       </c>
       <c r="BA2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BB2" t="s">
         <v>1590</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>1591</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>1592</v>
       </c>
       <c r="BD2" t="s">
         <v>898</v>
       </c>
       <c r="BE2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BF2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BG2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BH2" t="s">
         <v>1122</v>
@@ -11552,22 +11558,22 @@
         <v>1124</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BK2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BL2" t="s">
         <v>1593</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BN2" t="s">
         <v>1594</v>
       </c>
-      <c r="BM2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>1595</v>
-      </c>
       <c r="BO2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -11608,10 +11614,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11629,10 +11635,10 @@
         <v>660</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11640,10 +11646,10 @@
         <v>1162</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11673,10 +11679,10 @@
         <v>833</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11706,10 +11712,10 @@
         <v>838</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11739,26 +11745,26 @@
         <v>842</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11806,7 +11812,7 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11827,7 +11833,7 @@
         <v>1255</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11860,7 +11866,7 @@
         <v>1254</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11893,7 +11899,7 @@
         <v>1116</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11926,7 +11932,7 @@
         <v>1084</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11977,7 +11983,7 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11992,10 +11998,10 @@
         <v>820</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12039,7 +12045,7 @@
         <v>1254</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12061,7 +12067,7 @@
         <v>1116</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12094,7 +12100,7 @@
         <v>1084</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -12163,7 +12169,7 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12178,10 +12184,10 @@
         <v>659</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12194,10 +12200,10 @@
         <v>660</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12241,7 +12247,7 @@
         <v>1254</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12263,7 +12269,7 @@
         <v>1116</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12296,7 +12302,7 @@
         <v>1084</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12365,7 +12371,7 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12380,10 +12386,10 @@
         <v>1172</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12396,10 +12402,10 @@
         <v>1162</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12443,7 +12449,7 @@
         <v>1254</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12465,7 +12471,7 @@
         <v>1116</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12498,7 +12504,7 @@
         <v>1084</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12564,7 +12570,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B3" s="105"/>
     </row>
@@ -12597,7 +12603,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12626,7 +12632,7 @@
         <v>1173</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12665,7 +12671,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12694,7 +12700,7 @@
         <v>1174</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12745,7 +12751,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12774,7 +12780,7 @@
         <v>1174</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12851,10 +12857,10 @@
         <v>1175</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12946,10 +12952,10 @@
         <v>1175</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12978,10 +12984,10 @@
         <v>834</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -13055,10 +13061,10 @@
         <v>1175</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13087,10 +13093,10 @@
         <v>834</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
@@ -13363,7 +13369,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B3" s="105"/>
     </row>
@@ -13399,7 +13405,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13461,7 +13467,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13490,15 +13496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="4" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -13509,7 +13515,10 @@
         <v>1094</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1524</v>
+        <v>1523</v>
+      </c>
+      <c r="D1" s="72">
+        <v>2128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13520,7 +13529,10 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13533,6 +13545,9 @@
       <c r="C3" s="76" t="s">
         <v>1182</v>
       </c>
+      <c r="D3" s="76" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
@@ -13544,6 +13559,9 @@
       <c r="C4" s="102">
         <v>9846201537</v>
       </c>
+      <c r="D4" s="102">
+        <v>9846201537</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -13553,7 +13571,10 @@
         <v>1254</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1522</v>
+        <v>1521</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13566,6 +13587,9 @@
       <c r="C6" s="102" t="s">
         <v>841</v>
       </c>
+      <c r="D6" s="102" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
@@ -13577,6 +13601,9 @@
       <c r="C7" s="102" t="s">
         <v>861</v>
       </c>
+      <c r="D7" s="102" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
@@ -13588,6 +13615,9 @@
       <c r="C8" s="102" t="s">
         <v>1163</v>
       </c>
+      <c r="D8" s="102" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
@@ -13599,6 +13629,9 @@
       <c r="C9" s="102" t="s">
         <v>1184</v>
       </c>
+      <c r="D9" s="102" t="s">
+        <v>1769</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
@@ -13610,6 +13643,9 @@
       <c r="C10" s="102" t="s">
         <v>79</v>
       </c>
+      <c r="D10" s="102" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
@@ -13622,7 +13658,7 @@
         <v>1185</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>1455</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13635,6 +13671,9 @@
       <c r="C12" s="102">
         <v>1000</v>
       </c>
+      <c r="D12" s="102">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
@@ -13646,6 +13685,9 @@
       <c r="C13" s="102">
         <v>100000</v>
       </c>
+      <c r="D13" s="102">
+        <v>100000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
@@ -13655,6 +13697,9 @@
         <v>871</v>
       </c>
       <c r="C14" s="102" t="s">
+        <v>871</v>
+      </c>
+      <c r="D14" s="102" t="s">
         <v>871</v>
       </c>
     </row>
@@ -13662,28 +13707,29 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="4" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>181</v>
       </c>
@@ -13693,26 +13739,33 @@
       <c r="C1" s="102">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="102">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="106"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>821</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1469</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>26</v>
       </c>
@@ -13722,8 +13775,11 @@
       <c r="C4" s="76" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="76" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>836</v>
       </c>
@@ -13733,8 +13789,11 @@
       <c r="C5" s="102">
         <v>958647231</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="102">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>1178</v>
       </c>
@@ -13742,6 +13801,9 @@
         <v>79</v>
       </c>
       <c r="C6" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="102" t="s">
         <v>79</v>
       </c>
     </row>
@@ -13749,9 +13811,10 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13935,15 +13998,15 @@
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="102" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="43.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13959,7 +14022,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -13967,7 +14030,7 @@
         <v>820</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14015,7 +14078,7 @@
         <v>826</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14023,7 +14086,7 @@
         <v>827</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14063,7 +14126,7 @@
         <v>833</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14087,7 +14150,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14111,7 +14174,7 @@
         <v>842</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14132,15 +14195,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B25" s="102">
         <v>8674763764</v>
@@ -14148,10 +14211,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -14159,20 +14222,20 @@
         <v>1417</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="102" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="B29" s="105" t="s">
         <v>824</v>
@@ -14192,19 +14255,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="104" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.85546875" style="104" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
@@ -14249,10 +14313,10 @@
         <v>1082</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14364,10 +14428,10 @@
         <v>1085</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14453,13 +14517,13 @@
         <v>1053</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>1676</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14476,13 +14540,13 @@
         <v>1053</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F12" s="106" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>1676</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14686,10 +14750,10 @@
         <v>1083</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14854,18 +14918,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="102" t="s">
-        <v>1462</v>
+      <c r="A29" s="27" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="17" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="105" t="s">
-        <v>1674</v>
+      <c r="A30" s="27" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -14955,10 +15020,10 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -14995,10 +15060,10 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15015,10 +15080,10 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15078,7 +15143,7 @@
         <v>1058</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15098,7 +15163,7 @@
         <v>1059</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15135,10 +15200,10 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15155,10 +15220,10 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -15175,10 +15240,10 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15205,15 +15270,15 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -15222,7 +15287,7 @@
         <v>12219905</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15318,10 +15383,10 @@
         <v>1082</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15361,10 +15426,10 @@
         <v>1054</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15378,10 +15443,10 @@
         <v>1055</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -15432,7 +15497,7 @@
         <v>1058</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15449,7 +15514,7 @@
         <v>1059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15480,10 +15545,10 @@
         <v>1060</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15497,10 +15562,10 @@
         <v>1056</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15514,10 +15579,10 @@
         <v>1057</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15531,10 +15596,10 @@
         <v>1086</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15548,22 +15613,22 @@
         <v>1274</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B18" s="44"/>
       <c r="D18" s="29">
         <v>12219905</v>
       </c>
       <c r="E18" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -15774,10 +15839,10 @@
         <v>1000</v>
       </c>
       <c r="G2" s="102" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="I2" s="102">
         <v>15</v>
@@ -15786,10 +15851,10 @@
         <v>500</v>
       </c>
       <c r="K2" s="102" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="L2" s="102" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="M2" s="102">
         <v>20</v>
@@ -15798,10 +15863,10 @@
         <v>750</v>
       </c>
       <c r="O2" s="102" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="P2" s="102" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="Q2" s="102">
         <v>10</v>
@@ -15810,10 +15875,10 @@
         <v>100</v>
       </c>
       <c r="S2" s="102" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="T2" s="102" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="U2" s="102">
         <v>10</v>
@@ -15822,10 +15887,10 @@
         <v>1000</v>
       </c>
       <c r="W2" s="102" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="Y2" s="102">
         <v>25</v>
@@ -15834,10 +15899,10 @@
         <v>250</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="AB2" s="102" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="AC2" s="102">
         <v>25</v>
@@ -15859,8 +15924,8 @@
   </sheetPr>
   <dimension ref="A1:FJ154"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15877,7 +15942,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C1" s="85">
         <v>2128</v>
@@ -16069,16 +16134,16 @@
         <v>882</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="3" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16086,16 +16151,16 @@
         <v>1257</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="4" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16103,16 +16168,16 @@
         <v>1258</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="5" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16120,16 +16185,16 @@
         <v>1259</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="6" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16137,16 +16202,16 @@
         <v>1260</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="7" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16154,16 +16219,16 @@
         <v>1261</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="8" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16188,7 +16253,7 @@
         <v>1263</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="10" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16196,7 +16261,7 @@
         <v>1264</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="11" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16204,7 +16269,7 @@
         <v>1265</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="12" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16212,7 +16277,7 @@
         <v>1266</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="13" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16220,7 +16285,7 @@
         <v>1267</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="14" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16228,7 +16293,7 @@
         <v>1268</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="15" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16236,7 +16301,7 @@
         <v>1269</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="16" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16244,7 +16309,7 @@
         <v>1270</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16252,7 +16317,7 @@
         <v>1271</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16260,23 +16325,26 @@
         <v>1272</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
         <v>164</v>
       </c>
+      <c r="B19" t="s">
+        <v>1811</v>
+      </c>
       <c r="C19" s="102" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C20" s="102" t="s">
         <v>1640</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16292,7 +16360,7 @@
         <v>1453</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16300,7 +16368,7 @@
         <v>1454</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16308,16 +16376,16 @@
         <v>159</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1702</v>
+        <v>987</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -16326,13 +16394,13 @@
       </c>
       <c r="B25" s="102"/>
       <c r="C25" s="102" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -16341,10 +16409,10 @@
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="102" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -16365,7 +16433,7 @@
       </c>
       <c r="B28" s="102"/>
       <c r="C28" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -16374,7 +16442,7 @@
       </c>
       <c r="B29" s="102"/>
       <c r="C29" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -16390,7 +16458,7 @@
       </c>
       <c r="B31" s="102"/>
       <c r="C31" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -16399,7 +16467,7 @@
       </c>
       <c r="B32" s="102"/>
       <c r="C32" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -16417,7 +16485,7 @@
       </c>
       <c r="B34" s="102"/>
       <c r="C34" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -16426,7 +16494,7 @@
       </c>
       <c r="B35" s="102"/>
       <c r="C35" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D35" s="102"/>
     </row>
@@ -16444,7 +16512,7 @@
       </c>
       <c r="B37" s="102"/>
       <c r="C37" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D37" s="102"/>
     </row>
@@ -16454,7 +16522,7 @@
       </c>
       <c r="B38" s="102"/>
       <c r="C38" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D38" s="102"/>
     </row>
@@ -16464,7 +16532,7 @@
       </c>
       <c r="B39" s="102"/>
       <c r="C39" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D39" s="102"/>
     </row>
@@ -16484,7 +16552,7 @@
       </c>
       <c r="B41" s="102"/>
       <c r="C41" s="102" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D41" s="102"/>
     </row>
@@ -16494,7 +16562,7 @@
       </c>
       <c r="B42" s="102"/>
       <c r="C42" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -16503,7 +16571,7 @@
       </c>
       <c r="B43" s="102"/>
       <c r="C43" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -16512,7 +16580,7 @@
       </c>
       <c r="B44" s="102"/>
       <c r="C44" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -16521,7 +16589,7 @@
       </c>
       <c r="B45" s="102"/>
       <c r="C45" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -16530,7 +16598,7 @@
       </c>
       <c r="B46" s="102"/>
       <c r="C46" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -16539,7 +16607,7 @@
       </c>
       <c r="B47" s="102"/>
       <c r="C47" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -16548,7 +16616,7 @@
       </c>
       <c r="B48" s="102"/>
       <c r="C48" s="105" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -16557,7 +16625,7 @@
       </c>
       <c r="B49" s="102"/>
       <c r="C49" s="102" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -16566,7 +16634,7 @@
       </c>
       <c r="B50" s="102"/>
       <c r="C50" s="105" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -16584,7 +16652,7 @@
       </c>
       <c r="B52" s="102"/>
       <c r="C52" s="105" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -16593,7 +16661,7 @@
       </c>
       <c r="B53" s="102"/>
       <c r="C53" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -16602,7 +16670,7 @@
       </c>
       <c r="B54" s="102"/>
       <c r="C54" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -16611,7 +16679,7 @@
       </c>
       <c r="B55" s="102"/>
       <c r="C55" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -16620,7 +16688,7 @@
       </c>
       <c r="B56" s="102"/>
       <c r="C56" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -16629,7 +16697,7 @@
       </c>
       <c r="B57" s="102"/>
       <c r="C57" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -16638,7 +16706,7 @@
       </c>
       <c r="B58" s="102"/>
       <c r="C58" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -16647,10 +16715,10 @@
       </c>
       <c r="B59" s="102"/>
       <c r="C59" s="104" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="E59" s="102" t="s">
         <v>876</v>
@@ -16662,7 +16730,7 @@
       </c>
       <c r="B60" s="102"/>
       <c r="C60" s="105" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -16671,7 +16739,7 @@
       </c>
       <c r="B61" s="102"/>
       <c r="C61" s="105" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -16680,7 +16748,7 @@
       </c>
       <c r="B62" s="102"/>
       <c r="C62" s="105" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -16689,7 +16757,7 @@
       </c>
       <c r="B63" s="102"/>
       <c r="C63" s="105" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -16698,7 +16766,7 @@
       </c>
       <c r="B64" s="102"/>
       <c r="C64" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -16707,7 +16775,7 @@
       </c>
       <c r="B65" s="102"/>
       <c r="C65" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -16786,7 +16854,7 @@
       </c>
       <c r="B76" s="102"/>
       <c r="C76" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -16794,10 +16862,10 @@
         <v>1366</v>
       </c>
       <c r="B77" s="106" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C77" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -16805,10 +16873,10 @@
         <v>1367</v>
       </c>
       <c r="B78" s="106" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C78" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -16948,7 +17016,7 @@
       </c>
       <c r="B98" s="102"/>
       <c r="C98" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -16970,7 +17038,7 @@
         <v>1392</v>
       </c>
       <c r="C101" s="106" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -16978,7 +17046,7 @@
         <v>1393</v>
       </c>
       <c r="C102" s="102" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -16986,7 +17054,7 @@
         <v>1394</v>
       </c>
       <c r="C103" s="106" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -17044,7 +17112,7 @@
       </c>
       <c r="B111" s="102"/>
       <c r="C111" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -17053,7 +17121,7 @@
       </c>
       <c r="B112" s="102"/>
       <c r="C112" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -17062,7 +17130,7 @@
       </c>
       <c r="B113" s="102"/>
       <c r="C113" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -17071,7 +17139,7 @@
       </c>
       <c r="B114" s="102"/>
       <c r="C114" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -17079,7 +17147,7 @@
         <v>1410</v>
       </c>
       <c r="B115" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C115"/>
     </row>
@@ -17113,7 +17181,7 @@
       </c>
       <c r="B120" s="102"/>
       <c r="C120" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -17122,7 +17190,7 @@
       </c>
       <c r="B121" s="102"/>
       <c r="C121" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -17131,7 +17199,7 @@
       </c>
       <c r="B122" s="102"/>
       <c r="C122" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -17140,7 +17208,7 @@
       </c>
       <c r="B123" s="102"/>
       <c r="C123" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -17154,10 +17222,10 @@
       </c>
       <c r="B125" s="102"/>
       <c r="C125" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D125" s="102" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -17166,7 +17234,7 @@
       </c>
       <c r="B126" s="102"/>
       <c r="C126" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -17175,7 +17243,7 @@
       </c>
       <c r="B127" s="102"/>
       <c r="C127" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -17184,7 +17252,7 @@
       </c>
       <c r="B128" s="102"/>
       <c r="C128" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -17193,7 +17261,7 @@
       </c>
       <c r="B129" s="102"/>
       <c r="C129" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -17218,7 +17286,7 @@
       </c>
       <c r="B132" s="102"/>
       <c r="C132" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -17237,26 +17305,26 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B135" s="102"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B136" s="102"/>
       <c r="C136"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B137" s="102"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B138" s="102"/>
     </row>
@@ -17269,29 +17337,29 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C140" s="102"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B141" s="102"/>
       <c r="C141" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B142" s="102"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B143" s="102"/>
       <c r="C143"/>
@@ -17301,100 +17369,100 @@
         <v>1443</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="H144" s="27" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="102" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B145" s="102"/>
       <c r="C145" s="106" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="102" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="B146" s="102"/>
       <c r="C146" s="106" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="102" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B147" s="102"/>
       <c r="C147" s="106" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="102" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B148" s="102"/>
       <c r="C148" s="106" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="102" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="B149" s="102"/>
       <c r="C149" s="106" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="102" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="B150" s="102"/>
       <c r="C150" s="106" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="102" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B151" s="102"/>
       <c r="C151" s="106" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="102" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="B152" s="102"/>
       <c r="C152" s="106" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="102" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="B153" s="102"/>
       <c r="C153" s="106" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="102" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="B154" s="102"/>
       <c r="C154" s="106" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
   </sheetData>
@@ -17735,12 +17803,12 @@
         <v>20</v>
       </c>
       <c r="N5" s="104" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="104" t="s">
@@ -17777,7 +17845,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
   </sheetData>
@@ -17850,10 +17918,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
   </sheetData>
@@ -17893,7 +17961,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C2" t="s">
         <v>174</v>
@@ -17933,7 +18001,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C2" t="s">
         <v>174</v>
@@ -18152,20 +18220,20 @@
         <v>1356</v>
       </c>
       <c r="BM1" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="BN1" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B3" t="s">
         <v>941</v>
@@ -18177,10 +18245,10 @@
         <v>1192</v>
       </c>
       <c r="E3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="G3" t="s">
         <v>1134</v>
@@ -18189,94 +18257,94 @@
         <v>1197</v>
       </c>
       <c r="I3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="J3" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="L3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="M3" t="s">
         <v>1197</v>
       </c>
       <c r="N3" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="O3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="P3" t="s">
         <v>1134</v>
       </c>
       <c r="Q3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W3" t="s">
         <v>1708</v>
       </c>
-      <c r="R3" t="s">
-        <v>1498</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1709</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1686</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1494</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1710</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1711</v>
-      </c>
       <c r="X3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="Y3" t="s">
         <v>1134</v>
       </c>
       <c r="Z3" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AA3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AB3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="AC3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="AD3" t="s">
         <v>1234</v>
       </c>
       <c r="AE3" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AF3" t="s">
         <v>1192</v>
       </c>
       <c r="AG3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AH3" t="s">
         <v>1134</v>
       </c>
       <c r="AI3" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AK3" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="AL3" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AM3" t="s">
         <v>1234</v>
@@ -18285,10 +18353,10 @@
         <v>1192</v>
       </c>
       <c r="AO3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="AP3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AQ3" t="s">
         <v>1134</v>
@@ -18297,13 +18365,13 @@
         <v>1197</v>
       </c>
       <c r="AS3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="AT3" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="AU3" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="AV3" t="s">
         <v>1281</v>
@@ -18315,19 +18383,19 @@
         <v>1193</v>
       </c>
       <c r="AY3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AZ3" t="s">
         <v>1134</v>
       </c>
       <c r="BA3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="BB3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="BC3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="BD3" t="s">
         <v>1134</v>
@@ -18360,7 +18428,7 @@
         <v>988</v>
       </c>
       <c r="BN3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
   </sheetData>
@@ -18434,7 +18502,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -18468,7 +18536,7 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -18485,7 +18553,7 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -18536,7 +18604,7 @@
         <v>1058</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -18553,7 +18621,7 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -18587,7 +18655,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -18604,7 +18672,7 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -18621,7 +18689,7 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -18647,7 +18715,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -18670,11 +18738,11 @@
     </row>
     <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B20" s="67"/>
       <c r="E20" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -19164,7 +19232,7 @@
     </row>
     <row r="5" spans="1:43" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>903</v>
@@ -19256,7 +19324,7 @@
     </row>
     <row r="6" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>903</v>
@@ -19274,10 +19342,10 @@
         <v>1000</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="J6" s="102">
         <v>15</v>
@@ -19286,10 +19354,10 @@
         <v>500</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="N6" s="102">
         <v>20</v>
@@ -19298,10 +19366,10 @@
         <v>750</v>
       </c>
       <c r="P6" s="102" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="Q6" s="102" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="R6" s="102">
         <v>10</v>
@@ -19310,10 +19378,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="102" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="U6" s="102" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="V6" s="102">
         <v>10</v>
@@ -19322,10 +19390,10 @@
         <v>1000</v>
       </c>
       <c r="X6" s="102" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="Y6" s="102" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="Z6" s="102">
         <v>25</v>
@@ -19334,10 +19402,10 @@
         <v>250</v>
       </c>
       <c r="AB6" s="102" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="AC6" s="102" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="AD6" s="102">
         <v>25</v>
@@ -19411,7 +19479,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>903</v>
@@ -19422,7 +19490,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>903</v>
@@ -19502,7 +19570,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19536,7 +19604,7 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -19553,7 +19621,7 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -19604,7 +19672,7 @@
         <v>1058</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -19621,7 +19689,7 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19655,7 +19723,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -19672,7 +19740,7 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -19689,7 +19757,7 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -19715,7 +19783,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19755,10 +19823,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E21" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -20091,7 +20159,7 @@
     </row>
     <row r="5" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>988</v>
@@ -20172,7 +20240,7 @@
     </row>
     <row r="6" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>988</v>
@@ -20190,10 +20258,10 @@
         <v>1000</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="J6" s="102">
         <v>15</v>
@@ -20202,10 +20270,10 @@
         <v>500</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="N6" s="102">
         <v>20</v>
@@ -20214,10 +20282,10 @@
         <v>750</v>
       </c>
       <c r="P6" s="102" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="Q6" s="102" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="R6" s="102">
         <v>10</v>
@@ -20226,10 +20294,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="102" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="U6" s="102" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="V6" s="102">
         <v>10</v>
@@ -20238,10 +20306,10 @@
         <v>1000</v>
       </c>
       <c r="X6" s="102" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="Y6" s="102" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="Z6" s="102">
         <v>25</v>
@@ -20250,10 +20318,10 @@
         <v>250</v>
       </c>
       <c r="AB6" s="102" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="AC6" s="102" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="AD6" s="102">
         <v>25</v>
@@ -21509,7 +21577,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>988</v>
@@ -21520,7 +21588,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>988</v>
@@ -21600,7 +21668,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -21634,7 +21702,7 @@
         <v>1313</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -21651,7 +21719,7 @@
         <v>1314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -21753,7 +21821,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -21770,7 +21838,7 @@
         <v>1315</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -21787,7 +21855,7 @@
         <v>1316</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -21813,7 +21881,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -22321,7 +22389,7 @@
     </row>
     <row r="5" spans="1:43" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1100</v>
@@ -22473,7 +22541,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>1100</v>
@@ -22551,7 +22619,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -22585,7 +22653,7 @@
         <v>1313</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -22602,7 +22670,7 @@
         <v>1314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -22704,7 +22772,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -22721,7 +22789,7 @@
         <v>1315</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -22738,7 +22806,7 @@
         <v>1316</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -22764,7 +22832,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -22804,7 +22872,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -23439,7 +23507,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1361</v>
@@ -23520,7 +23588,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23554,7 +23622,7 @@
         <v>1313</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23571,7 +23639,7 @@
         <v>1314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23673,7 +23741,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -23690,7 +23758,7 @@
         <v>1315</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -23707,7 +23775,7 @@
         <v>1316</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -23733,7 +23801,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -23773,7 +23841,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -24253,7 +24321,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1362</v>
@@ -24408,7 +24476,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1362</v>
@@ -26543,7 +26611,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -26577,7 +26645,7 @@
         <v>1313</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -26594,7 +26662,7 @@
         <v>1314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -26696,7 +26764,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -26713,7 +26781,7 @@
         <v>1315</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -26730,7 +26798,7 @@
         <v>1316</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -26756,7 +26824,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -26796,7 +26864,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -27276,10 +27344,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>56</v>
@@ -27431,10 +27499,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>174</v>
@@ -27466,7 +27534,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -27474,10 +27542,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -27485,7 +27553,7 @@
         <v>904</v>
       </c>
       <c r="B4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -27493,12 +27561,12 @@
         <v>161</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>988</v>
@@ -27984,7 +28052,7 @@
         <v>1107</v>
       </c>
       <c r="D2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>1214</v>
@@ -28004,7 +28072,7 @@
         <v>1108</v>
       </c>
       <c r="D3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E3" s="111" t="s">
         <v>1215</v>
@@ -28024,7 +28092,7 @@
         <v>1109</v>
       </c>
       <c r="D4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E4" s="111" t="s">
         <v>1216</v>
@@ -28044,7 +28112,7 @@
         <v>1110</v>
       </c>
       <c r="D5" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E5" s="111" t="s">
         <v>1217</v>
@@ -28064,7 +28132,7 @@
         <v>1083</v>
       </c>
       <c r="D6" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E6" s="111" t="s">
         <v>1218</v>
@@ -28084,7 +28152,7 @@
         <v>1111</v>
       </c>
       <c r="D7" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E7" s="111" t="s">
         <v>1219</v>
@@ -28104,7 +28172,7 @@
         <v>1112</v>
       </c>
       <c r="D8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E8" s="111" t="s">
         <v>1220</v>
@@ -28124,7 +28192,7 @@
         <v>1113</v>
       </c>
       <c r="D9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E9" s="111" t="s">
         <v>1221</v>
@@ -28144,7 +28212,7 @@
         <v>1114</v>
       </c>
       <c r="D10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>1222</v>
@@ -28164,7 +28232,7 @@
         <v>1115</v>
       </c>
       <c r="D11" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>1223</v>
@@ -28384,17 +28452,17 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="105" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="F5" s="104" t="s">
         <v>611</v>
@@ -28438,7 +28506,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -28484,7 +28552,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -28547,7 +28615,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -28608,7 +28676,7 @@
         <v>1080</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E3" s="105" t="s">
         <v>202</v>
@@ -28885,7 +28953,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -28908,10 +28976,10 @@
         <v>650</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
   </sheetData>
@@ -28952,7 +29020,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -28978,10 +29046,10 @@
         <v>2020</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
   </sheetData>
@@ -29035,7 +29103,7 @@
         <v>1246</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
@@ -29060,7 +29128,7 @@
         <v>1247</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H2" s="22"/>
     </row>
@@ -29108,7 +29176,7 @@
         <v>1246</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -29132,7 +29200,7 @@
         <v>1248</v>
       </c>
       <c r="G5" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="59"/>
@@ -29157,7 +29225,7 @@
         <v>1200</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -29206,7 +29274,7 @@
         <v>1249</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -29379,7 +29447,7 @@
         <v>1060</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -29403,7 +29471,7 @@
         <v>1250</v>
       </c>
       <c r="G16" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -29428,7 +29496,7 @@
         <v>1250</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
@@ -29453,7 +29521,7 @@
         <v>163</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
@@ -29478,7 +29546,7 @@
         <v>924</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H19" s="17"/>
     </row>
@@ -29587,7 +29655,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29604,7 +29672,7 @@
         <v>1213</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -29621,7 +29689,7 @@
         <v>1284</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29649,7 +29717,7 @@
         <v>1082</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29680,10 +29748,10 @@
         <v>1210</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -29697,10 +29765,10 @@
         <v>1212</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29760,7 +29828,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -29775,7 +29843,7 @@
         <v>1096</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -29805,7 +29873,7 @@
         <v>1094</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -29820,7 +29888,7 @@
         <v>1082</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -29835,7 +29903,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -29865,7 +29933,7 @@
         <v>1098</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -29970,7 +30038,7 @@
         <v>1060</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -29985,7 +30053,7 @@
         <v>1116</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -30000,7 +30068,7 @@
         <v>1116</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -30015,7 +30083,7 @@
         <v>163</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -30030,7 +30098,7 @@
         <v>924</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -30087,10 +30155,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -30102,10 +30170,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -30163,7 +30231,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -30171,7 +30239,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -30179,7 +30247,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -30187,7 +30255,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -30195,7 +30263,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -30203,7 +30271,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -30211,7 +30279,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -30219,7 +30287,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -30227,7 +30295,7 @@
         <v>139</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -30235,7 +30303,7 @@
         <v>140</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -30243,7 +30311,7 @@
         <v>141</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -30251,7 +30319,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -30259,7 +30327,7 @@
         <v>143</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -30267,7 +30335,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -30275,7 +30343,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -30283,7 +30351,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30291,7 +30359,7 @@
         <v>147</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
@@ -30340,10 +30408,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -30351,10 +30419,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="102" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C4" s="102" t="s">
         <v>1503</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>1504</v>
       </c>
     </row>
   </sheetData>
@@ -30411,10 +30479,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -30422,10 +30490,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -30743,16 +30811,16 @@
         <v>925</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>797</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="G4" s="105" t="s">
         <v>871</v>
@@ -30762,7 +30830,7 @@
       </c>
       <c r="I4" s="105"/>
       <c r="J4" s="105" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
@@ -31575,7 +31643,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>903</v>
@@ -31622,7 +31690,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -31875,7 +31943,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="104" t="s">
@@ -31941,7 +32009,7 @@
         <v>892</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -31952,7 +32020,7 @@
         <v>1335</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -32001,7 +32069,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32268,7 +32336,7 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>988</v>
@@ -32315,7 +32383,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32568,7 +32636,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>1100</v>
@@ -32810,7 +32878,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>1100</v>
@@ -32857,7 +32925,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32915,7 +32983,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33078,10 +33146,10 @@
         <v>1229</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -33167,7 +33235,7 @@
         <v>1284</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -33187,7 +33255,7 @@
         <v>1284</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -33298,7 +33366,7 @@
         <v>1284</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -33338,7 +33406,7 @@
         <v>1284</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -33416,7 +33484,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33430,7 +33498,7 @@
         <v>1094</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33444,7 +33512,7 @@
         <v>1445</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -33487,7 +33555,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -33521,7 +33589,7 @@
         <v>1284</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -33603,7 +33671,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -33660,10 +33728,10 @@
         <v>1229</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -33796,34 +33864,34 @@
         <v>1284</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
   </sheetData>
@@ -33860,7 +33928,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33908,7 +33976,7 @@
         <v>1284</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -33954,7 +34022,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -34032,10 +34100,10 @@
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="105" t="s">
@@ -34050,19 +34118,19 @@
         <v>1221</v>
       </c>
       <c r="C3" s="106" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E3" s="104" t="s">
         <v>1548</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E3" s="104" t="s">
+      <c r="F3" s="104" t="s">
         <v>1549</v>
       </c>
-      <c r="F3" s="104" t="s">
-        <v>1550</v>
-      </c>
       <c r="G3" s="104" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -34172,10 +34240,10 @@
         <v>193</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -34183,10 +34251,10 @@
         <v>651</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -34197,7 +34265,7 @@
         <v>1324</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -34208,7 +34276,7 @@
         <v>1324</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -34324,10 +34392,10 @@
         <v>193</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -34335,10 +34403,10 @@
         <v>651</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -34349,7 +34417,7 @@
         <v>1325</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -34360,7 +34428,7 @@
         <v>1325</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -34438,10 +34506,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G2" s="102">
         <v>1284001</v>
@@ -34461,10 +34529,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G3" s="102">
         <v>1221001</v>
@@ -34551,10 +34619,10 @@
         <v>1063</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -34571,7 +34639,7 @@
         <v>1043</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -34634,7 +34702,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34692,7 +34760,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34791,10 +34859,10 @@
       </c>
       <c r="D2" s="104"/>
       <c r="E2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G2" s="102">
         <v>1284002</v>
@@ -34815,10 +34883,10 @@
         <v>988</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G3" s="102">
         <v>1221002</v>
@@ -34861,7 +34929,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34919,7 +34987,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34988,7 +35056,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35078,7 +35146,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35134,7 +35202,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35233,7 +35301,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -35241,10 +35309,10 @@
         <v>159</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -35293,10 +35361,10 @@
         <v>997</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -35488,7 +35556,7 @@
         <v>220</v>
       </c>
       <c r="O4" s="102" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="P4" s="105" t="s">
         <v>1014</v>

--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="138" activeTab="141"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="140" activeTab="141"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6177" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="1813">
   <si>
     <t>Description</t>
   </si>
@@ -5609,7 +5609,7 @@
     <t>1009128</t>
   </si>
   <si>
-    <t>GlobalCompanyVendor</t>
+    <t>24TTL Digital Marketing Solutions DMCC</t>
   </si>
 </sst>
 </file>
@@ -13494,10 +13494,10 @@
 
 <file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13701,6 +13701,26 @@
       </c>
       <c r="D14" s="102" t="s">
         <v>871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="104" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="17" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="104" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105" t="s">
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -14258,7 +14278,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A29" sqref="A29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15925,7 +15945,7 @@
   <dimension ref="A1:FJ154"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="140" activeTab="141"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="126" activeTab="128"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="1813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6205" uniqueCount="1838">
   <si>
     <t>Description</t>
   </si>
@@ -3666,9 +3666,6 @@
     <t>Settling company</t>
   </si>
   <si>
-    <t>mathew@oglivy.com</t>
-  </si>
-  <si>
     <t>AccountDirectorNo</t>
   </si>
   <si>
@@ -4551,16 +4548,7 @@
     <t>01/25/2021</t>
   </si>
   <si>
-    <t>L'Oreal China</t>
-  </si>
-  <si>
     <t>Corporate</t>
-  </si>
-  <si>
-    <t>102569001001</t>
-  </si>
-  <si>
-    <t>102569001</t>
   </si>
   <si>
     <t>1284Auto@gmail.com</t>
@@ -5610,6 +5598,93 @@
   </si>
   <si>
     <t>24TTL Digital Marketing Solutions DMCC</t>
+  </si>
+  <si>
+    <t>2113-Memac Ogilvy &amp; Mather LLC</t>
+  </si>
+  <si>
+    <t>2120-Social Lab Middle East FZ-LLC</t>
+  </si>
+  <si>
+    <t>102272001001</t>
+  </si>
+  <si>
+    <t>103250001001</t>
+  </si>
+  <si>
+    <t>Bdg Architecture</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 07March2021 16:48:57</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>2113 Finance</t>
+  </si>
+  <si>
+    <t>2120 Finance</t>
+  </si>
+  <si>
+    <t>2113Auto01@oglivy.com</t>
+  </si>
+  <si>
+    <t>2120Auto01@oglivy.com</t>
+  </si>
+  <si>
+    <t>21139004</t>
+  </si>
+  <si>
+    <t>21209905</t>
+  </si>
+  <si>
+    <t>2113_AED_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>2120_AED_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>102272</t>
+  </si>
+  <si>
+    <t>103250</t>
+  </si>
+  <si>
+    <t>103271</t>
+  </si>
+  <si>
+    <t>Bdg Architecture + Design Limited</t>
+  </si>
+  <si>
+    <t>2128_AutoClient 07March2021 16:48:57</t>
+  </si>
+  <si>
+    <t>2128_AutoClient 16March2021 19:31:14</t>
+  </si>
+  <si>
+    <t>103271001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 16March2021 19:31:14</t>
+  </si>
+  <si>
+    <t>103271001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 16March2021 19:31:14</t>
+  </si>
+  <si>
+    <t>102272001</t>
+  </si>
+  <si>
+    <t>103250001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 07March2021 16:48:57</t>
   </si>
 </sst>
 </file>
@@ -6437,10 +6512,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -6463,10 +6538,10 @@
         <v>818</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6474,10 +6549,10 @@
         <v>819</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="C5" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -6575,7 +6650,7 @@
         <v>1043</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6599,10 +6674,10 @@
         <v>1029</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6636,7 +6711,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6644,7 +6719,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6657,7 +6732,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="B4" t="s">
         <v>797</v>
@@ -6665,42 +6740,42 @@
     </row>
     <row r="5" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B5" s="105" t="s">
         <v>1614</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B6" s="105" t="s">
         <v>1615</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -6891,7 +6966,7 @@
         <v>1054</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D5" s="102" t="s">
         <v>797</v>
@@ -6903,10 +6978,10 @@
         <v>220</v>
       </c>
       <c r="H5" s="102" t="s">
+        <v>1251</v>
+      </c>
+      <c r="I5" s="105" t="s">
         <v>1252</v>
-      </c>
-      <c r="I5" s="105" t="s">
-        <v>1253</v>
       </c>
       <c r="J5" s="105"/>
       <c r="K5" s="102">
@@ -6919,7 +6994,7 @@
         <v>220</v>
       </c>
       <c r="O5" s="102" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="P5" s="105" t="s">
         <v>1011</v>
@@ -6950,7 +7025,7 @@
         <v>220</v>
       </c>
       <c r="O6" s="102" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="P6" s="105" t="s">
         <v>1011</v>
@@ -7140,7 +7215,7 @@
         <v>1284</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="F3" t="s">
         <v>1018</v>
@@ -7175,7 +7250,7 @@
         <v>2128</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>1018</v>
@@ -7196,7 +7271,7 @@
         <v>220</v>
       </c>
       <c r="P4" s="102" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="Q4" s="105" t="s">
         <v>1021</v>
@@ -7237,7 +7312,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,10 +7330,10 @@
         <v>1025</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -7293,7 +7368,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7304,10 +7379,10 @@
         <v>1025</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>
@@ -7342,10 +7417,10 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7363,13 +7438,13 @@
         <v>1025</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -7396,82 +7471,82 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1" t="s">
         <v>1416</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1417</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1418</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1419</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1420</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1421</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1422</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1423</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1424</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1425</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1426</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1427</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1428</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1429</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1430</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1431</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>1432</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>1433</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1434</v>
       </c>
       <c r="U1" t="s">
         <v>217</v>
       </c>
       <c r="V1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W1" t="s">
         <v>1435</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1436</v>
       </c>
       <c r="X1" t="s">
         <v>90</v>
       </c>
       <c r="Y1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Z1" t="s">
         <v>1437</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1438</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1439</v>
       </c>
       <c r="AB1" t="s">
         <v>1006</v>
@@ -7495,28 +7570,28 @@
         <v>1094</v>
       </c>
       <c r="B4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D4" t="s">
         <v>817</v>
       </c>
       <c r="E4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="F4" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="G4" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="I4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="J4" t="s">
         <v>1019</v>
@@ -7540,16 +7615,16 @@
         <v>797</v>
       </c>
       <c r="Q4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="R4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="T4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="U4" t="s">
         <v>220</v>
@@ -7558,7 +7633,7 @@
         <v>1017</v>
       </c>
       <c r="W4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="X4" t="s">
         <v>1020</v>
@@ -7573,44 +7648,44 @@
         <v>797</v>
       </c>
       <c r="AB4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AC4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B6" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="C6" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D6" t="s">
         <v>817</v>
       </c>
       <c r="E6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H6" t="s">
         <v>1558</v>
       </c>
-      <c r="F6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1562</v>
-      </c>
       <c r="I6" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="J6" t="s">
         <v>1019</v>
@@ -7625,7 +7700,7 @@
         <v>1018</v>
       </c>
       <c r="N6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="O6" t="s">
         <v>1058</v>
@@ -7634,31 +7709,31 @@
         <v>797</v>
       </c>
       <c r="Q6" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="R6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S6" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="T6" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="U6" t="s">
         <v>220</v>
       </c>
       <c r="V6" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="W6" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="X6" t="s">
         <v>1020</v>
       </c>
       <c r="Y6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="Z6" t="s">
         <v>1058</v>
@@ -7667,39 +7742,39 @@
         <v>797</v>
       </c>
       <c r="AB6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AC6" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G7" t="s">
         <v>1758</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1762</v>
       </c>
       <c r="H7" t="s">
         <v>1134</v>
       </c>
       <c r="I7" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="J7" t="s">
         <v>1019</v>
@@ -7714,52 +7789,52 @@
         <v>1018</v>
       </c>
       <c r="N7" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="O7" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="P7" t="s">
         <v>797</v>
       </c>
       <c r="Q7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="R7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S7" t="s">
         <v>1134</v>
       </c>
       <c r="T7" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="U7" t="s">
         <v>220</v>
       </c>
       <c r="V7" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="W7" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="X7" t="s">
         <v>1020</v>
       </c>
       <c r="Y7" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="Z7" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="AA7" t="s">
         <v>797</v>
       </c>
       <c r="AB7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AC7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -7814,19 +7889,19 @@
         <v>952</v>
       </c>
       <c r="G1" s="106" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H1" s="106" t="s">
         <v>1187</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="I1" s="106" t="s">
         <v>1188</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="J1" s="106" t="s">
         <v>1189</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="K1" s="106" t="s">
         <v>1190</v>
-      </c>
-      <c r="K1" s="106" t="s">
-        <v>1191</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>159</v>
@@ -7873,10 +7948,10 @@
         <v>1071</v>
       </c>
       <c r="J2" s="106" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K2" s="106" t="s">
         <v>1195</v>
-      </c>
-      <c r="K2" s="106" t="s">
-        <v>1196</v>
       </c>
       <c r="M2" s="104" t="s">
         <v>892</v>
@@ -7888,7 +7963,7 @@
         <v>903</v>
       </c>
       <c r="P2" s="105" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7920,22 +7995,22 @@
         <v>1071</v>
       </c>
       <c r="J3" s="106" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K3" s="106" t="s">
         <v>1195</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>1196</v>
-      </c>
       <c r="M3" s="102" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="O3" s="105" t="s">
         <v>903</v>
       </c>
       <c r="P3" s="105" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -8029,7 +8104,7 @@
         <v>174</v>
       </c>
       <c r="K2" s="105" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8052,13 +8127,13 @@
         <v>965</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="J3" s="105" t="s">
         <v>174</v>
       </c>
       <c r="K3" s="105" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
@@ -8123,10 +8198,10 @@
         <v>1044</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -8303,10 +8378,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
   </sheetData>
@@ -8339,7 +8414,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,7 +8433,7 @@
         <v>1116</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -8457,13 +8532,13 @@
         <v>1137</v>
       </c>
       <c r="Z1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1337</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1338</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1339</v>
       </c>
       <c r="AC1" t="s">
         <v>102</v>
@@ -8484,13 +8559,13 @@
         <v>1140</v>
       </c>
       <c r="AI1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1340</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1341</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1342</v>
       </c>
       <c r="AL1" t="s">
         <v>106</v>
@@ -8511,13 +8586,13 @@
         <v>1143</v>
       </c>
       <c r="AR1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AS1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>1344</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1345</v>
       </c>
       <c r="AU1" t="s">
         <v>110</v>
@@ -8538,13 +8613,13 @@
         <v>1146</v>
       </c>
       <c r="BA1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BB1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BC1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BD1" t="s">
         <v>114</v>
@@ -8565,19 +8640,19 @@
         <v>1149</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="BK1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BL1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BM1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BN1" t="s">
         <v>1358</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>1359</v>
       </c>
       <c r="BO1" t="s">
         <v>180</v>
@@ -8596,13 +8671,13 @@
         <v>1092</v>
       </c>
       <c r="AV3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AW3" t="s">
         <v>1281</v>
       </c>
-      <c r="AW3" t="s">
-        <v>1282</v>
-      </c>
       <c r="AX3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AY3" t="s">
         <v>1122</v>
@@ -8611,25 +8686,25 @@
         <v>1124</v>
       </c>
       <c r="BA3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="BB3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="BC3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BD3" t="s">
         <v>1093</v>
       </c>
       <c r="BE3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BF3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="BG3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="BH3" t="s">
         <v>1122</v>
@@ -8638,13 +8713,13 @@
         <v>1124</v>
       </c>
       <c r="BJ3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="BK3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BL3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
@@ -8655,19 +8730,19 @@
         <v>1088</v>
       </c>
       <c r="C4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="E4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="F4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H4" t="s">
         <v>1122</v>
@@ -8676,25 +8751,25 @@
         <v>1124</v>
       </c>
       <c r="J4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="K4" t="s">
         <v>1090</v>
       </c>
       <c r="L4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="M4" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="N4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="O4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="P4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="Q4" t="s">
         <v>1122</v>
@@ -8703,25 +8778,25 @@
         <v>1124</v>
       </c>
       <c r="S4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="T4" t="s">
         <v>1092</v>
       </c>
       <c r="U4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="V4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="W4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="X4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="Y4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="Z4" t="s">
         <v>1122</v>
@@ -8730,25 +8805,25 @@
         <v>1124</v>
       </c>
       <c r="AB4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AC4" t="s">
         <v>1093</v>
       </c>
       <c r="AD4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="AE4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="AF4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="AG4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AH4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="AI4" t="s">
         <v>1122</v>
@@ -8757,25 +8832,25 @@
         <v>1124</v>
       </c>
       <c r="AK4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AL4" t="s">
         <v>941</v>
       </c>
       <c r="AM4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="AN4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AO4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AP4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="AQ4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="AR4" t="s">
         <v>1122</v>
@@ -8784,7 +8859,7 @@
         <v>1124</v>
       </c>
       <c r="AT4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="AU4"/>
       <c r="AV4"/>
@@ -8805,10 +8880,10 @@
       <c r="BK4"/>
       <c r="BL4"/>
       <c r="BM4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="BN4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="BO4" t="s">
         <v>839</v>
@@ -8816,24 +8891,24 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B6" t="s">
         <v>941</v>
       </c>
       <c r="C6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E6" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F6" t="s">
         <v>1122</v>
@@ -8842,25 +8917,25 @@
         <v>1124</v>
       </c>
       <c r="H6" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="I6" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="J6" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="K6" t="s">
         <v>1088</v>
       </c>
       <c r="L6" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="M6" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="N6" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="O6" t="s">
         <v>1122</v>
@@ -8869,25 +8944,25 @@
         <v>1124</v>
       </c>
       <c r="Q6" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="R6" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="S6" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="T6" t="s">
         <v>1089</v>
       </c>
       <c r="U6" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="V6" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="W6" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="X6" t="s">
         <v>1122</v>
@@ -8896,25 +8971,25 @@
         <v>1124</v>
       </c>
       <c r="Z6" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="AA6" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="AB6" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="AC6" t="s">
         <v>1090</v>
       </c>
       <c r="AD6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE6" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="AF6" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="AG6" t="s">
         <v>1122</v>
@@ -8923,25 +8998,25 @@
         <v>1124</v>
       </c>
       <c r="AI6" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="AK6" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="AL6" t="s">
         <v>1091</v>
       </c>
       <c r="AM6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AN6" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="AO6" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AP6" t="s">
         <v>1122</v>
@@ -8950,25 +9025,25 @@
         <v>1124</v>
       </c>
       <c r="AR6" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="AS6" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="AT6" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="AU6" t="s">
         <v>1092</v>
       </c>
       <c r="AV6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AW6" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="AX6" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="AY6" t="s">
         <v>1122</v>
@@ -8977,25 +9052,25 @@
         <v>1124</v>
       </c>
       <c r="BA6" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="BB6" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="BC6" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="BD6" t="s">
         <v>1093</v>
       </c>
       <c r="BE6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BF6" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="BG6" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="BH6" t="s">
         <v>1122</v>
@@ -9004,39 +9079,39 @@
         <v>1124</v>
       </c>
       <c r="BJ6" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BK6" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BL6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="BM6" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="BN6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="BO6" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="B7" t="s">
         <v>941</v>
       </c>
       <c r="C7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E7" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F7" t="s">
         <v>1134</v>
@@ -9045,25 +9120,25 @@
         <v>1134</v>
       </c>
       <c r="H7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="I7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="J7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="K7" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="L7" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="M7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N7" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="O7" t="s">
         <v>1134</v>
@@ -9072,25 +9147,25 @@
         <v>1134</v>
       </c>
       <c r="Q7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="R7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="T7" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="U7" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="V7" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="W7" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="X7" t="s">
         <v>1134</v>
@@ -9099,25 +9174,25 @@
         <v>1134</v>
       </c>
       <c r="Z7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AA7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AB7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="AC7" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="AD7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE7" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="AF7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AG7" t="s">
         <v>1134</v>
@@ -9126,25 +9201,25 @@
         <v>1134</v>
       </c>
       <c r="AI7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AJ7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AK7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="AL7" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="AM7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AN7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AO7" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="AP7" t="s">
         <v>1134</v>
@@ -9153,25 +9228,25 @@
         <v>1134</v>
       </c>
       <c r="AR7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AS7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AT7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="AU7" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="AV7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AW7" t="s">
         <v>1281</v>
       </c>
-      <c r="AW7" t="s">
-        <v>1282</v>
-      </c>
       <c r="AX7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AY7" t="s">
         <v>1134</v>
@@ -9180,25 +9255,25 @@
         <v>1134</v>
       </c>
       <c r="BA7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BB7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BC7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="BD7" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="BE7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BF7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="BG7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="BH7" t="s">
         <v>1134</v>
@@ -9207,19 +9282,19 @@
         <v>1134</v>
       </c>
       <c r="BJ7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BK7" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BL7" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="BM7" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="BN7" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="BO7" t="s">
         <v>839</v>
@@ -9227,205 +9302,205 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B8" t="s">
         <v>941</v>
       </c>
       <c r="C8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E8" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="G8" t="s">
         <v>1134</v>
       </c>
       <c r="H8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="J8" t="s">
         <v>939</v>
       </c>
       <c r="K8" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="L8" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="M8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N8" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="O8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="P8" t="s">
         <v>1134</v>
       </c>
       <c r="Q8" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="R8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S8" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="T8" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="U8" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="V8" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="W8" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="X8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="Y8" t="s">
         <v>1134</v>
       </c>
       <c r="Z8" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="AA8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AB8" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="AC8" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="AD8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE8" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="AF8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AG8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AH8" t="s">
         <v>1134</v>
       </c>
       <c r="AI8" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AK8" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="AL8" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="AM8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AN8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AO8" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="AP8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AQ8" t="s">
         <v>1134</v>
       </c>
       <c r="AR8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AS8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AT8" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="AU8" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="AV8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AW8" t="s">
         <v>1281</v>
       </c>
-      <c r="AW8" t="s">
-        <v>1282</v>
-      </c>
       <c r="AX8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AY8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AZ8" t="s">
         <v>1134</v>
       </c>
       <c r="BA8" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="BB8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BC8" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="BD8" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="BE8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BF8" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="BG8" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="BH8" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="BI8" t="s">
         <v>1134</v>
       </c>
       <c r="BJ8" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="BK8" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BL8" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="BM8" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="BN8" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="BO8" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -9501,7 +9576,7 @@
         <v>959</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -9554,13 +9629,13 @@
         <v>1284</v>
       </c>
       <c r="B2" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="D2" s="106" t="s">
         <v>1396</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>1397</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>1116</v>
@@ -9580,7 +9655,7 @@
         <v>1071</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -9715,12 +9790,12 @@
         <v>959</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K6" s="104" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
@@ -9771,7 +9846,7 @@
         <v>1116</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
@@ -9883,13 +9958,13 @@
         <v>1284</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="106" t="s">
         <v>1311</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>1312</v>
       </c>
       <c r="K4" s="55" t="s">
         <v>1116</v>
@@ -9900,16 +9975,16 @@
         <v>1221</v>
       </c>
       <c r="B5" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="D5" s="106" t="s">
         <v>1311</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>1312</v>
-      </c>
       <c r="K5" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -9997,13 +10072,13 @@
         <v>1284</v>
       </c>
       <c r="B3" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="106" t="s">
         <v>1396</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>1397</v>
       </c>
       <c r="K3" s="55" t="s">
         <v>1116</v>
@@ -10014,16 +10089,16 @@
         <v>1221</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="106" t="s">
         <v>1396</v>
       </c>
-      <c r="D4" s="106" t="s">
-        <v>1397</v>
-      </c>
       <c r="K4" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -10318,19 +10393,19 @@
         <v>1284</v>
       </c>
       <c r="B3" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="106" t="s">
         <v>1311</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>1312</v>
-      </c>
       <c r="E3" s="106" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F3" s="106" t="s">
         <v>1364</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>1365</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>977</v>
@@ -10362,19 +10437,19 @@
         <v>1221</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="106" t="s">
         <v>1311</v>
       </c>
-      <c r="D4" s="106" t="s">
-        <v>1312</v>
-      </c>
       <c r="E4" s="106" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F4" s="106" t="s">
         <v>1364</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>1365</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>977</v>
@@ -10386,7 +10461,7 @@
         <v>979</v>
       </c>
       <c r="K4" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="L4" s="104" t="s">
         <v>892</v>
@@ -10496,10 +10571,10 @@
         <v>1063</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10538,7 +10613,7 @@
         <v>1043</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -10842,19 +10917,19 @@
         <v>1284</v>
       </c>
       <c r="B3" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="D3" s="106" t="s">
         <v>1311</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>1312</v>
-      </c>
       <c r="E3" s="106" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F3" s="106" t="s">
         <v>1379</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>1380</v>
       </c>
       <c r="G3" s="106" t="s">
         <v>983</v>
@@ -10883,19 +10958,19 @@
         <v>1221</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="D4" s="106" t="s">
         <v>1311</v>
       </c>
-      <c r="D4" s="106" t="s">
-        <v>1312</v>
-      </c>
       <c r="E4" s="106" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F4" s="106" t="s">
         <v>1379</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>1380</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>983</v>
@@ -10908,7 +10983,7 @@
       </c>
       <c r="J4" s="102"/>
       <c r="K4" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="L4" s="104" t="s">
         <v>895</v>
@@ -10973,13 +11048,13 @@
         <v>1284</v>
       </c>
       <c r="B2" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C2" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="D2" s="106" t="s">
         <v>1396</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>1397</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>1116</v>
@@ -10993,7 +11068,7 @@
       <c r="C3" s="106"/>
       <c r="D3" s="106"/>
       <c r="F3" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -11026,28 +11101,28 @@
         <v>5</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E1" s="106" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>1005</v>
       </c>
       <c r="G1" s="106" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H1" s="106" t="s">
         <v>1187</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="I1" s="106" t="s">
         <v>1188</v>
-      </c>
-      <c r="I1" s="106" t="s">
-        <v>1189</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>960</v>
@@ -11061,22 +11136,22 @@
         <v>1284</v>
       </c>
       <c r="C2" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
         <v>1396</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>1397</v>
-      </c>
       <c r="G2" s="106" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H2" s="106" t="s">
         <v>1395</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="I2" s="106" t="s">
         <v>1396</v>
-      </c>
-      <c r="I2" s="106" t="s">
-        <v>1397</v>
       </c>
       <c r="K2" s="105" t="s">
         <v>1116</v>
@@ -11087,25 +11162,25 @@
         <v>2128</v>
       </c>
       <c r="C3" s="106" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H3" s="106" t="s">
         <v>1775</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="I3" s="106" t="s">
         <v>1776</v>
       </c>
-      <c r="E3" s="106" t="s">
-        <v>1777</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>1778</v>
-      </c>
-      <c r="H3" s="106" t="s">
-        <v>1779</v>
-      </c>
-      <c r="I3" s="106" t="s">
-        <v>1780</v>
-      </c>
       <c r="K3" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -11151,7 +11226,7 @@
         <v>1221</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -11247,13 +11322,13 @@
         <v>1137</v>
       </c>
       <c r="Z1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1337</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1338</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1339</v>
       </c>
       <c r="AC1" t="s">
         <v>102</v>
@@ -11274,13 +11349,13 @@
         <v>1140</v>
       </c>
       <c r="AI1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1340</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1341</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1342</v>
       </c>
       <c r="AL1" t="s">
         <v>106</v>
@@ -11301,13 +11376,13 @@
         <v>1143</v>
       </c>
       <c r="AR1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AS1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>1344</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1345</v>
       </c>
       <c r="AU1" t="s">
         <v>110</v>
@@ -11328,13 +11403,13 @@
         <v>1146</v>
       </c>
       <c r="BA1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BB1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BC1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BD1" t="s">
         <v>114</v>
@@ -11355,19 +11430,19 @@
         <v>1149</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="BK1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BL1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BM1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="BN1" t="s">
         <v>1358</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>1359</v>
       </c>
       <c r="BO1" t="s">
         <v>180</v>
@@ -11375,19 +11450,19 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E2" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F2" t="s">
         <v>1122</v>
@@ -11396,25 +11471,25 @@
         <v>1124</v>
       </c>
       <c r="H2" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="I2" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="J2" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="K2" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="L2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="M2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="N2" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="O2" t="s">
         <v>1122</v>
@@ -11423,25 +11498,25 @@
         <v>1124</v>
       </c>
       <c r="Q2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="R2" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="S2" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="T2" t="s">
         <v>894</v>
       </c>
       <c r="U2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="V2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="W2" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="X2" t="s">
         <v>1122</v>
@@ -11450,25 +11525,25 @@
         <v>1124</v>
       </c>
       <c r="Z2" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="AA2" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="AB2" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="AC2" t="s">
         <v>896</v>
       </c>
       <c r="AD2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AE2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AF2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="AG2" t="s">
         <v>1122</v>
@@ -11477,25 +11552,25 @@
         <v>1124</v>
       </c>
       <c r="AI2" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="AK2" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="AL2" t="s">
         <v>897</v>
       </c>
       <c r="AM2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AN2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AO2" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="AP2" t="s">
         <v>1122</v>
@@ -11504,25 +11579,25 @@
         <v>1124</v>
       </c>
       <c r="AR2" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="AS2" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="AT2" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="AU2" t="s">
         <v>803</v>
       </c>
       <c r="AV2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AW2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AX2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="AY2" t="s">
         <v>1122</v>
@@ -11531,25 +11606,25 @@
         <v>1124</v>
       </c>
       <c r="BA2" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="BB2" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="BC2" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="BD2" t="s">
         <v>898</v>
       </c>
       <c r="BE2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BF2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BG2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="BH2" t="s">
         <v>1122</v>
@@ -11558,22 +11633,22 @@
         <v>1124</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="BK2" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="BL2" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="BM2" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="BN2" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="BO2" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -11614,10 +11689,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11635,10 +11710,10 @@
         <v>660</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11646,10 +11721,10 @@
         <v>1162</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11679,10 +11754,10 @@
         <v>833</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11712,10 +11787,10 @@
         <v>838</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11745,26 +11820,26 @@
         <v>842</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11812,7 +11887,7 @@
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11830,10 +11905,10 @@
         <v>1162</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11863,10 +11938,10 @@
         <v>833</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11899,7 +11974,7 @@
         <v>1116</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11932,7 +12007,7 @@
         <v>1084</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11951,82 +12026,103 @@
 
 <file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="102" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" style="102"/>
+    <col min="8" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="77">
+        <v>2113</v>
+      </c>
+      <c r="C1" s="77">
+        <v>2120</v>
+      </c>
+      <c r="D1" s="102">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1809</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="105" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>820</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>1460</v>
+      <c r="B4" s="105" t="s">
+        <v>1828</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1829</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>178</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" s="102" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>1164</v>
       </c>
-      <c r="B6" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C6" s="105">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="105" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>177</v>
       </c>
@@ -12036,43 +12132,52 @@
       <c r="C7" s="102" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="102" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>870</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>1254</v>
+        <v>1817</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1818</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="76" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
         <v>1165</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="B10" s="105" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
         <v>1166</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>1167</v>
       </c>
       <c r="B11" s="102" t="s">
         <v>831</v>
@@ -12081,29 +12186,29 @@
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
         <v>874</v>
       </c>
       <c r="B12" s="102" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
         <v>1168</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>1169</v>
-      </c>
       <c r="B13" s="102" t="s">
-        <v>1084</v>
+        <v>1823</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
         <v>872</v>
       </c>
@@ -12114,21 +12219,37 @@
         <v>841</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B15" s="105" t="s">
         <v>1170</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>1171</v>
-      </c>
       <c r="C15" s="105" t="s">
-        <v>1171</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId2" display="2113Auto01@oglivy.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12137,28 +12258,29 @@
 
 <file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="102"/>
+    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
+      <c r="B1" s="77">
+        <v>2113</v>
+      </c>
+      <c r="C1" s="77">
+        <v>2120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12166,10 +12288,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1516</v>
+        <v>1809</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12177,33 +12299,33 @@
         <v>658</v>
       </c>
       <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1463</v>
+      <c r="B4" s="105" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>1836</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>820</v>
       </c>
+      <c r="B5" s="105"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>660</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>1460</v>
+        <v>1813</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12211,21 +12333,21 @@
         <v>178</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>79</v>
+        <v>228</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>1164</v>
       </c>
-      <c r="B8" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C8" s="105">
-        <v>1221</v>
+      <c r="B8" s="105" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12244,10 +12366,10 @@
         <v>870</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1254</v>
+        <v>1817</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1521</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12255,26 +12377,26 @@
         <v>26</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>1165</v>
+        <v>1819</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>1165</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1116</v>
+        <v>1821</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1517</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B13" s="102" t="s">
         <v>831</v>
@@ -12288,21 +12410,21 @@
         <v>874</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1084</v>
+        <v>1823</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1518</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12318,19 +12440,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B17" s="105" t="s">
         <v>1170</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>1171</v>
-      </c>
       <c r="C17" s="105" t="s">
-        <v>1171</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12339,28 +12477,30 @@
 
 <file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="102"/>
+    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
+      <c r="B1" s="77">
+        <v>2113</v>
+      </c>
+      <c r="C1" s="77">
+        <v>2120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12368,10 +12508,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1516</v>
+        <v>1809</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12379,33 +12519,33 @@
         <v>658</v>
       </c>
       <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1462</v>
+        <v>1171</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>820</v>
       </c>
+      <c r="B5" s="105"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>1162</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>1461</v>
+        <v>1813</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12413,21 +12553,21 @@
         <v>178</v>
       </c>
       <c r="B7" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>79</v>
+        <v>228</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>1164</v>
       </c>
-      <c r="B8" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C8" s="105">
-        <v>1221</v>
+      <c r="B8" s="105" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12446,10 +12586,10 @@
         <v>870</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1254</v>
+        <v>1817</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1521</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12457,26 +12597,26 @@
         <v>26</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>1165</v>
+        <v>1819</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>1165</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1116</v>
+        <v>1821</v>
       </c>
       <c r="C12" s="105" t="s">
-        <v>1517</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B13" s="102" t="s">
         <v>831</v>
@@ -12490,21 +12630,21 @@
         <v>874</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1084</v>
+        <v>1823</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1518</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12520,19 +12660,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B17" s="105" t="s">
         <v>1170</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>1171</v>
-      </c>
       <c r="C17" s="105" t="s">
-        <v>1171</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>1794</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12570,7 +12726,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B3" s="105"/>
     </row>
@@ -12603,7 +12759,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12629,10 +12785,10 @@
         <v>836</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12671,7 +12827,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12697,10 +12853,10 @@
         <v>836</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12751,7 +12907,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -12777,10 +12933,10 @@
         <v>836</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12792,7 +12948,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B6" s="109"/>
       <c r="C6" s="109"/>
@@ -12854,23 +13010,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12949,23 +13105,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12984,10 +13140,10 @@
         <v>834</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>
@@ -13046,7 +13202,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B4" s="109"/>
       <c r="C4" s="109"/>
@@ -13058,23 +13214,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13093,10 +13249,10 @@
         <v>834</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
   </sheetData>
@@ -13154,7 +13310,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B4" s="110"/>
     </row>
@@ -13369,7 +13525,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B3" s="105"/>
     </row>
@@ -13405,7 +13561,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13467,7 +13623,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13496,7 +13652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -13515,7 +13671,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D1" s="72">
         <v>2128</v>
@@ -13523,16 +13679,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>1082</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13540,13 +13696,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13568,13 +13724,13 @@
         <v>870</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13624,13 +13780,13 @@
         <v>875</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -13652,13 +13808,13 @@
         <v>852</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13705,22 +13861,22 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="104" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="104"/>
       <c r="D15" s="17" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="104" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B16" s="104"/>
       <c r="C16" s="104"/>
       <c r="D16" s="105" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -13776,13 +13932,13 @@
         <v>821</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13790,13 +13946,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13815,7 +13971,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B6" s="102" t="s">
         <v>79</v>
@@ -13876,10 +14032,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13895,7 +14051,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B5" s="102" t="s">
         <v>79</v>
@@ -13990,7 +14146,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B2" s="106"/>
     </row>
@@ -14042,7 +14198,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14050,7 +14206,7 @@
         <v>820</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14098,7 +14254,7 @@
         <v>826</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14106,7 +14262,7 @@
         <v>827</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14146,7 +14302,7 @@
         <v>833</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14170,7 +14326,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14194,7 +14350,7 @@
         <v>842</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14215,15 +14371,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="B25" s="102">
         <v>8674763764</v>
@@ -14231,31 +14387,31 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="102" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="B29" s="105" t="s">
         <v>824</v>
@@ -14298,7 +14454,7 @@
         <v>181</v>
       </c>
       <c r="B1" s="104" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C1" s="27">
         <v>1319</v>
@@ -14321,7 +14477,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>796</v>
@@ -14333,10 +14489,10 @@
         <v>1082</v>
       </c>
       <c r="F2" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14436,7 +14592,7 @@
         <v>852</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>880</v>
@@ -14448,10 +14604,10 @@
         <v>1085</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14528,7 +14684,7 @@
         <v>855</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>885</v>
@@ -14537,13 +14693,13 @@
         <v>1053</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14551,7 +14707,7 @@
         <v>856</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>885</v>
@@ -14560,13 +14716,13 @@
         <v>1053</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="F12" s="106" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14758,7 +14914,7 @@
         <v>870</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>811</v>
@@ -14770,10 +14926,10 @@
         <v>1083</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14939,18 +15095,18 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="G30" s="105" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -15040,10 +15196,10 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15080,10 +15236,10 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15100,10 +15256,10 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15163,7 +15319,7 @@
         <v>1058</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -15183,7 +15339,7 @@
         <v>1059</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -15220,10 +15376,10 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -15240,10 +15396,10 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -15260,10 +15416,10 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -15290,15 +15446,15 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -15307,7 +15463,7 @@
         <v>12219905</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -15403,10 +15559,10 @@
         <v>1082</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -15446,10 +15602,10 @@
         <v>1054</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -15463,10 +15619,10 @@
         <v>1055</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -15517,7 +15673,7 @@
         <v>1058</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -15534,7 +15690,7 @@
         <v>1059</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -15565,10 +15721,10 @@
         <v>1060</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -15582,10 +15738,10 @@
         <v>1056</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -15599,10 +15755,10 @@
         <v>1057</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -15616,10 +15772,10 @@
         <v>1086</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -15630,25 +15786,25 @@
         <v>891</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B18" s="44"/>
       <c r="D18" s="29">
         <v>12219905</v>
       </c>
       <c r="E18" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -15859,10 +16015,10 @@
         <v>1000</v>
       </c>
       <c r="G2" s="102" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="I2" s="102">
         <v>15</v>
@@ -15871,10 +16027,10 @@
         <v>500</v>
       </c>
       <c r="K2" s="102" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="L2" s="102" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="M2" s="102">
         <v>20</v>
@@ -15883,10 +16039,10 @@
         <v>750</v>
       </c>
       <c r="O2" s="102" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="P2" s="102" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="Q2" s="102">
         <v>10</v>
@@ -15895,10 +16051,10 @@
         <v>100</v>
       </c>
       <c r="S2" s="102" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="T2" s="102" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="U2" s="102">
         <v>10</v>
@@ -15907,10 +16063,10 @@
         <v>1000</v>
       </c>
       <c r="W2" s="102" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="X2" s="102" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="Y2" s="102">
         <v>25</v>
@@ -15919,10 +16075,10 @@
         <v>250</v>
       </c>
       <c r="AA2" s="102" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="AB2" s="102" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="AC2" s="102">
         <v>25</v>
@@ -15962,7 +16118,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C1" s="85">
         <v>2128</v>
@@ -16154,106 +16310,106 @@
         <v>882</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="3" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="5" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="6" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="7" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="8" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B8" s="102" t="s">
         <v>215</v>
@@ -16270,82 +16426,82 @@
     </row>
     <row r="9" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="10" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="11" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="12" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="13" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="14" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="15" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="16" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -16353,23 +16509,23 @@
         <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C19" s="102" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C21" s="102" t="s">
         <v>611</v>
@@ -16377,18 +16533,18 @@
     </row>
     <row r="22" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16399,45 +16555,45 @@
         <v>987</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B25" s="102"/>
       <c r="C25" s="102" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E25" s="102" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B26" s="102"/>
       <c r="C26" s="102" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B27" s="102"/>
       <c r="C27" s="102" t="s">
@@ -16449,50 +16605,50 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B28" s="102"/>
       <c r="C28" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="102"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B31" s="102"/>
       <c r="C31" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B33" s="102"/>
       <c r="C33" t="s">
@@ -16501,11 +16657,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B34" s="102"/>
       <c r="C34" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -16514,7 +16670,7 @@
       </c>
       <c r="B35" s="102"/>
       <c r="C35" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="D35" s="102"/>
     </row>
@@ -16532,33 +16688,33 @@
       </c>
       <c r="B37" s="102"/>
       <c r="C37" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D37" s="102"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B38" s="102"/>
       <c r="C38" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D38" s="102"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B39" s="102"/>
       <c r="C39" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D39" s="102"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B40" s="102"/>
       <c r="C40" t="s">
@@ -16568,98 +16724,98 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="102" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B41" s="102"/>
       <c r="C41" s="102" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="D41" s="102"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B42" s="102"/>
       <c r="C42" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B43" s="102"/>
       <c r="C43" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B44" s="102"/>
       <c r="C44" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B45" s="102"/>
       <c r="C45" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B46" s="102"/>
       <c r="C46" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B47" s="102"/>
       <c r="C47" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B48" s="102"/>
       <c r="C48" s="105" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B49" s="102"/>
       <c r="C49" s="102" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B50" s="102"/>
       <c r="C50" s="105" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B51" s="102"/>
       <c r="C51" s="102" t="s">
@@ -16668,77 +16824,77 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="102" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B52" s="102"/>
       <c r="C52" s="105" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B53" s="102"/>
       <c r="C53" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B54" s="102"/>
       <c r="C54" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B55" s="102"/>
       <c r="C55" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B56" s="102"/>
       <c r="C56" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B57" s="102"/>
       <c r="C57" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B58" s="102"/>
       <c r="C58" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="102" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B59" s="102"/>
       <c r="C59" s="104" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="E59" s="102" t="s">
         <v>876</v>
@@ -16746,29 +16902,29 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="102" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B60" s="102"/>
       <c r="C60" s="105" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="102" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B61" s="102"/>
       <c r="C61" s="105" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="102" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B62" s="102"/>
       <c r="C62" s="105" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -16777,516 +16933,516 @@
       </c>
       <c r="B63" s="102"/>
       <c r="C63" s="105" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="102" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B64" s="102"/>
       <c r="C64" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B65" s="102"/>
       <c r="C65" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B66" s="102"/>
       <c r="C66" s="102"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B67" s="102"/>
       <c r="C67" s="102"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="102"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B69" s="102"/>
       <c r="C69" s="102"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B70" s="102"/>
       <c r="C70" s="102"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B71" s="102"/>
       <c r="C71" s="102"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B72" s="102"/>
       <c r="C72" s="102"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B73" s="102"/>
       <c r="C73" s="102"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B74" s="102"/>
       <c r="C74" s="102"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B75" s="102"/>
       <c r="C75" s="102"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B76" s="102"/>
       <c r="C76" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="104" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B77" s="106" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="C77" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B78" s="106" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="C78" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B79" s="102"/>
       <c r="C79" s="106"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B80" s="102"/>
       <c r="C80" s="106"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B81" s="102"/>
       <c r="C81" s="106"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B82" s="102"/>
       <c r="C82" s="106"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B83" s="102"/>
       <c r="C83" s="106"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B84" s="102"/>
       <c r="C84" s="106"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B85" s="102"/>
       <c r="C85"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B86" s="102"/>
       <c r="C86"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B87" s="102"/>
       <c r="C87"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B88" s="102"/>
       <c r="C88"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B89" s="102"/>
       <c r="C89"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B90" s="102"/>
       <c r="C90"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B91" s="102"/>
       <c r="C91"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B92" s="102"/>
       <c r="C92"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B93" s="102"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B94" s="102"/>
       <c r="C94"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B95" s="102"/>
       <c r="C95"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B96" s="102"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B97" s="102"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B98" s="102"/>
       <c r="C98" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B99" s="102"/>
       <c r="C99" s="106"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B100" s="102"/>
       <c r="C100" s="106"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="104" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C101" s="106" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="104" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C102" s="102" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C103" s="106" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B104" s="102"/>
       <c r="C104"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B105" s="102"/>
       <c r="C105"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B106" s="102"/>
       <c r="C106"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B107" s="102"/>
       <c r="C107"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="102" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B108" s="102"/>
       <c r="C108"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B109" s="102"/>
       <c r="D109"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B110" s="102"/>
       <c r="D110"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B111" s="102"/>
       <c r="C111" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B112" s="102"/>
       <c r="C112" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B113" s="102"/>
       <c r="C113" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B114" s="102"/>
       <c r="C114" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B115" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="C115"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B116" s="102"/>
       <c r="C116"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B117" s="102"/>
       <c r="C117"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="104" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="104" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B120" s="102"/>
       <c r="C120" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B121" s="102"/>
       <c r="C121" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B122" s="102"/>
       <c r="C122" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B123" s="102"/>
       <c r="C123" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B125" s="102"/>
       <c r="C125" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D125" s="102" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B126" s="102"/>
       <c r="C126" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B127" s="102"/>
       <c r="C127" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B128" s="102"/>
       <c r="C128" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B129" s="102"/>
       <c r="C129" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B130" s="102"/>
       <c r="C130" t="s">
@@ -17295,56 +17451,56 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B131" s="102"/>
       <c r="C131"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B132" s="102"/>
       <c r="C132" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B133" s="102"/>
       <c r="C133"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B134" s="102"/>
       <c r="C134"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B135" s="102"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B136" s="102"/>
       <c r="C136"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="B137" s="102"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="B138" s="102"/>
     </row>
@@ -17357,132 +17513,132 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="C140" s="102"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B141" s="102"/>
       <c r="C141" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="B142" s="102"/>
       <c r="C142"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="B143" s="102"/>
       <c r="C143"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="H144" s="27" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="102" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="B145" s="102"/>
       <c r="C145" s="106" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="102" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="B146" s="102"/>
       <c r="C146" s="106" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="102" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="B147" s="102"/>
       <c r="C147" s="106" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="102" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="B148" s="102"/>
       <c r="C148" s="106" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="102" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="B149" s="102"/>
       <c r="C149" s="106" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="102" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="B150" s="102"/>
       <c r="C150" s="106" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="102" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="B151" s="102"/>
       <c r="C151" s="106" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="102" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="B152" s="102"/>
       <c r="C152" s="106" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="102" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="B153" s="102"/>
       <c r="C153" s="106" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="102" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="B154" s="102"/>
       <c r="C154" s="106" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
     </row>
   </sheetData>
@@ -17796,7 +17952,7 @@
         <v>941</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F5" s="104">
         <v>1000</v>
@@ -17823,12 +17979,12 @@
         <v>20</v>
       </c>
       <c r="N5" s="104" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="104" t="s">
@@ -17865,7 +18021,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
     </row>
   </sheetData>
@@ -17930,7 +18086,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>174</v>
@@ -17938,10 +18094,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
     </row>
   </sheetData>
@@ -17981,7 +18137,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C2" t="s">
         <v>174</v>
@@ -18021,7 +18177,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C2" t="s">
         <v>174</v>
@@ -18123,13 +18279,13 @@
         <v>1137</v>
       </c>
       <c r="Z1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1337</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1338</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1339</v>
       </c>
       <c r="AC1" t="s">
         <v>102</v>
@@ -18150,13 +18306,13 @@
         <v>1140</v>
       </c>
       <c r="AI1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>1340</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>1341</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1342</v>
       </c>
       <c r="AL1" t="s">
         <v>106</v>
@@ -18177,13 +18333,13 @@
         <v>1143</v>
       </c>
       <c r="AR1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AS1" t="s">
         <v>1343</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>1344</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1345</v>
       </c>
       <c r="AU1" t="s">
         <v>110</v>
@@ -18204,13 +18360,13 @@
         <v>1146</v>
       </c>
       <c r="BA1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="BB1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BC1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BD1" t="s">
         <v>114</v>
@@ -18231,191 +18387,191 @@
         <v>1149</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="BK1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BL1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BM1" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="BN1" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B3" t="s">
         <v>941</v>
       </c>
       <c r="C3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="G3" t="s">
         <v>1134</v>
       </c>
       <c r="H3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="J3" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="K3" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="L3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="M3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="N3" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="O3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="P3" t="s">
         <v>1134</v>
       </c>
       <c r="Q3" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="R3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="S3" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="T3" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="U3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="V3" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="W3" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="X3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="Y3" t="s">
         <v>1134</v>
       </c>
       <c r="Z3" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="AA3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AB3" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="AC3" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="AD3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AE3" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="AF3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AG3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AH3" t="s">
         <v>1134</v>
       </c>
       <c r="AI3" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="AJ3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AK3" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="AL3" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="AM3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AN3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AO3" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="AP3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AQ3" t="s">
         <v>1134</v>
       </c>
       <c r="AR3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AS3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="AT3" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="AU3" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="AV3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AW3" t="s">
         <v>1281</v>
       </c>
-      <c r="AW3" t="s">
-        <v>1282</v>
-      </c>
       <c r="AX3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AY3" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="AZ3" t="s">
         <v>1134</v>
       </c>
       <c r="BA3" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="BB3" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="BC3" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="BD3" t="s">
         <v>1134</v>
@@ -18448,7 +18604,7 @@
         <v>988</v>
       </c>
       <c r="BN3" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -18522,7 +18678,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -18556,7 +18712,7 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -18573,7 +18729,7 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -18624,7 +18780,7 @@
         <v>1058</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -18641,7 +18797,7 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -18675,7 +18831,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -18692,7 +18848,7 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -18709,7 +18865,7 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -18735,7 +18891,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -18758,11 +18914,11 @@
     </row>
     <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B20" s="67"/>
       <c r="E20" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -19252,7 +19408,7 @@
     </row>
     <row r="5" spans="1:43" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>903</v>
@@ -19344,7 +19500,7 @@
     </row>
     <row r="6" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>903</v>
@@ -19362,10 +19518,10 @@
         <v>1000</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="J6" s="102">
         <v>15</v>
@@ -19374,10 +19530,10 @@
         <v>500</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="N6" s="102">
         <v>20</v>
@@ -19386,10 +19542,10 @@
         <v>750</v>
       </c>
       <c r="P6" s="102" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="Q6" s="102" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="R6" s="102">
         <v>10</v>
@@ -19398,10 +19554,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="102" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="U6" s="102" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="V6" s="102">
         <v>10</v>
@@ -19410,10 +19566,10 @@
         <v>1000</v>
       </c>
       <c r="X6" s="102" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="Y6" s="102" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="Z6" s="102">
         <v>25</v>
@@ -19422,10 +19578,10 @@
         <v>250</v>
       </c>
       <c r="AB6" s="102" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="AC6" s="102" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="AD6" s="102">
         <v>25</v>
@@ -19499,7 +19655,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>903</v>
@@ -19510,7 +19666,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>903</v>
@@ -19590,7 +19746,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19624,7 +19780,7 @@
         <v>1054</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -19641,7 +19797,7 @@
         <v>1055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -19692,7 +19848,7 @@
         <v>1058</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -19709,7 +19865,7 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -19743,7 +19899,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -19760,7 +19916,7 @@
         <v>1056</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -19777,7 +19933,7 @@
         <v>1057</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -19803,7 +19959,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -19843,10 +19999,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E21" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
   </sheetData>
@@ -20179,7 +20335,7 @@
     </row>
     <row r="5" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>988</v>
@@ -20260,7 +20416,7 @@
     </row>
     <row r="6" spans="1:43" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>988</v>
@@ -20278,10 +20434,10 @@
         <v>1000</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="J6" s="102">
         <v>15</v>
@@ -20290,10 +20446,10 @@
         <v>500</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="N6" s="102">
         <v>20</v>
@@ -20302,10 +20458,10 @@
         <v>750</v>
       </c>
       <c r="P6" s="102" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="Q6" s="102" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="R6" s="102">
         <v>10</v>
@@ -20314,10 +20470,10 @@
         <v>100</v>
       </c>
       <c r="T6" s="102" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="U6" s="102" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="V6" s="102">
         <v>10</v>
@@ -20326,10 +20482,10 @@
         <v>1000</v>
       </c>
       <c r="X6" s="102" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="Y6" s="102" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="Z6" s="102">
         <v>25</v>
@@ -20338,10 +20494,10 @@
         <v>250</v>
       </c>
       <c r="AB6" s="102" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="AC6" s="102" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="AD6" s="102">
         <v>25</v>
@@ -21597,7 +21753,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>988</v>
@@ -21608,7 +21764,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>988</v>
@@ -21688,7 +21844,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -21719,10 +21875,10 @@
         <v>1054</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -21736,10 +21892,10 @@
         <v>1055</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -21841,7 +21997,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -21855,10 +22011,10 @@
         <v>1056</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -21872,10 +22028,10 @@
         <v>1057</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -21901,7 +22057,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -22409,7 +22565,7 @@
     </row>
     <row r="5" spans="1:43" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="104" t="s">
         <v>1100</v>
@@ -22561,7 +22717,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>1100</v>
@@ -22639,7 +22795,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -22670,10 +22826,10 @@
         <v>1054</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -22687,10 +22843,10 @@
         <v>1055</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -22792,7 +22948,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -22806,10 +22962,10 @@
         <v>1056</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -22823,10 +22979,10 @@
         <v>1057</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -22852,7 +23008,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -22892,7 +23048,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -23283,7 +23439,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>56</v>
@@ -23375,7 +23531,7 @@
         <v>1221</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>56</v>
@@ -23519,7 +23675,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>174</v>
@@ -23527,10 +23683,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>174</v>
@@ -23608,7 +23764,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23639,10 +23795,10 @@
         <v>1054</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23656,10 +23812,10 @@
         <v>1055</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23761,7 +23917,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -23775,10 +23931,10 @@
         <v>1056</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -23792,10 +23948,10 @@
         <v>1057</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -23821,7 +23977,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -23861,7 +24017,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -24252,7 +24408,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>56</v>
@@ -24341,10 +24497,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>56</v>
@@ -24488,7 +24644,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>174</v>
@@ -24496,10 +24652,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>174</v>
@@ -26631,7 +26787,7 @@
         <v>1082</v>
       </c>
       <c r="E3" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -26662,10 +26818,10 @@
         <v>1054</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -26679,10 +26835,10 @@
         <v>1055</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -26784,7 +26940,7 @@
         <v>1060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -26798,10 +26954,10 @@
         <v>1056</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -26815,10 +26971,10 @@
         <v>1057</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -26844,7 +27000,7 @@
         <v>1095</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -26884,7 +27040,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -27275,7 +27431,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>56</v>
@@ -27364,10 +27520,10 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>56</v>
@@ -27511,7 +27667,7 @@
         <v>1094</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D4" s="104" t="s">
         <v>174</v>
@@ -27519,10 +27675,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>174</v>
@@ -27554,7 +27710,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -27562,10 +27718,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="B3" s="105" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -27573,7 +27729,7 @@
         <v>904</v>
       </c>
       <c r="B4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -27581,12 +27737,12 @@
         <v>161</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>988</v>
@@ -28072,13 +28228,13 @@
         <v>1107</v>
       </c>
       <c r="D2" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F2" s="113" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -28092,13 +28248,13 @@
         <v>1108</v>
       </c>
       <c r="D3" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="E3" s="111" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F3" s="113" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -28112,13 +28268,13 @@
         <v>1109</v>
       </c>
       <c r="D4" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F4" s="113" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -28132,13 +28288,13 @@
         <v>1110</v>
       </c>
       <c r="D5" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -28152,13 +28308,13 @@
         <v>1083</v>
       </c>
       <c r="D6" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F6" s="113" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -28172,13 +28328,13 @@
         <v>1111</v>
       </c>
       <c r="D7" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F7" s="113" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -28192,13 +28348,13 @@
         <v>1112</v>
       </c>
       <c r="D8" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -28212,13 +28368,13 @@
         <v>1113</v>
       </c>
       <c r="D9" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F9" s="113" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -28232,13 +28388,13 @@
         <v>1114</v>
       </c>
       <c r="D10" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28252,13 +28408,13 @@
         <v>1115</v>
       </c>
       <c r="D11" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -28458,7 +28614,7 @@
         <v>1116</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>849</v>
@@ -28472,17 +28628,17 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="105" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="F5" s="104" t="s">
         <v>611</v>
@@ -28526,7 +28682,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -28572,7 +28728,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -28635,7 +28791,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
   </sheetData>
@@ -28696,7 +28852,7 @@
         <v>1080</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E3" s="105" t="s">
         <v>202</v>
@@ -28973,7 +29129,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -28996,10 +29152,10 @@
         <v>650</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -29040,7 +29196,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29066,10 +29222,10 @@
         <v>2020</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -29117,13 +29273,13 @@
         <v>1094</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
@@ -29142,13 +29298,13 @@
         <v>1096</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H2" s="22"/>
     </row>
@@ -29190,13 +29346,13 @@
         <v>1094</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -29214,13 +29370,13 @@
         <v>1082</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G5" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="59"/>
@@ -29239,13 +29395,13 @@
         <v>1097</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -29288,13 +29444,13 @@
         <v>1098</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H8" s="17"/>
     </row>
@@ -29333,16 +29489,16 @@
         <v>30</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -29386,10 +29542,10 @@
         <v>1058</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>1058</v>
@@ -29411,10 +29567,10 @@
         <v>1059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>1059</v>
@@ -29467,7 +29623,7 @@
         <v>1060</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -29485,13 +29641,13 @@
         <v>1116</v>
       </c>
       <c r="E16" s="105" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G16" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
@@ -29510,13 +29666,13 @@
         <v>1116</v>
       </c>
       <c r="E17" s="105" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G17" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
@@ -29541,7 +29697,7 @@
         <v>163</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
@@ -29566,7 +29722,7 @@
         <v>924</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="H19" s="17"/>
     </row>
@@ -29669,13 +29825,13 @@
         <v>1307</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D1" s="46">
         <v>1284</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29683,33 +29839,33 @@
         <v>2</v>
       </c>
       <c r="B2" s="102" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C2" s="102" t="s">
         <v>1204</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>1205</v>
-      </c>
       <c r="D2" s="102" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D3" s="47">
         <v>1284</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29717,10 +29873,10 @@
         <v>161</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>1206</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>1207</v>
       </c>
       <c r="D4" s="105"/>
       <c r="E4" s="105"/>
@@ -29731,13 +29887,13 @@
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="102" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D5" s="102" t="s">
         <v>1082</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29762,16 +29918,16 @@
         <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>1209</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>1210</v>
-      </c>
       <c r="D7" s="14" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -29779,16 +29935,16 @@
         <v>41</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>1211</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>1212</v>
-      </c>
       <c r="D8" s="14" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -29799,7 +29955,7 @@
         <v>1307</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="47">
         <v>1284</v>
@@ -29848,7 +30004,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -29863,7 +30019,7 @@
         <v>1096</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -29893,7 +30049,7 @@
         <v>1094</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -29908,7 +30064,7 @@
         <v>1082</v>
       </c>
       <c r="C5" s="102" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -29920,10 +30076,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -29953,7 +30109,7 @@
         <v>1098</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -30058,7 +30214,7 @@
         <v>1060</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -30073,7 +30229,7 @@
         <v>1116</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -30088,7 +30244,7 @@
         <v>1116</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -30103,7 +30259,7 @@
         <v>163</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -30118,7 +30274,7 @@
         <v>924</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -30175,10 +30331,10 @@
         <v>43</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -30190,10 +30346,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -30251,7 +30407,7 @@
         <v>131</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -30259,7 +30415,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -30267,7 +30423,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -30275,7 +30431,7 @@
         <v>134</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -30283,7 +30439,7 @@
         <v>135</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -30291,7 +30447,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -30299,7 +30455,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -30307,7 +30463,7 @@
         <v>138</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -30315,7 +30471,7 @@
         <v>139</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -30323,7 +30479,7 @@
         <v>140</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -30331,7 +30487,7 @@
         <v>141</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -30339,7 +30495,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -30347,7 +30503,7 @@
         <v>143</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -30355,7 +30511,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -30363,7 +30519,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -30371,7 +30527,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30379,7 +30535,7 @@
         <v>147</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
@@ -30428,10 +30584,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -30439,10 +30595,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C4" s="102" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -30480,7 +30636,7 @@
         <v>1094</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -30488,10 +30644,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -30499,10 +30655,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -30510,10 +30666,10 @@
         <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -30831,16 +30987,16 @@
         <v>925</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>797</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="G4" s="105" t="s">
         <v>871</v>
@@ -30850,7 +31006,7 @@
       </c>
       <c r="I4" s="105"/>
       <c r="J4" s="105" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
@@ -31077,7 +31233,7 @@
         <v>1284</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -31422,7 +31578,7 @@
         <v>1284</v>
       </c>
       <c r="D4" s="84" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -31430,7 +31586,7 @@
         <v>1221</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -31663,7 +31819,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>903</v>
@@ -31710,7 +31866,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -31958,12 +32114,12 @@
         <v>988</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="104" t="s">
@@ -31974,7 +32130,7 @@
       </c>
       <c r="E4" s="104"/>
       <c r="F4" s="104" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -32015,7 +32171,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="105" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C2" s="105">
         <v>2128200338</v>
@@ -32029,26 +32185,26 @@
         <v>892</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C5" s="105">
         <v>2128200337</v>
@@ -32089,7 +32245,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32337,7 +32493,7 @@
         <v>1100</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -32351,12 +32507,12 @@
         <v>1100</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>988</v>
@@ -32403,7 +32559,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32648,24 +32804,24 @@
         <v>1100</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>1100</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F4" s="106" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
@@ -32890,24 +33046,24 @@
         <v>1100</v>
       </c>
       <c r="D3" s="104" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F3" s="106" t="s">
         <v>1362</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>1100</v>
       </c>
       <c r="D4" s="104" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F4" s="106" t="s">
         <v>1362</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -32945,7 +33101,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -32962,10 +33118,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -33003,7 +33159,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33020,10 +33176,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -33063,7 +33219,7 @@
         <v>1061</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E1" s="71">
         <v>1284</v>
@@ -33103,7 +33259,7 @@
         <v>1061</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E3" s="104">
         <v>1284</v>
@@ -33143,7 +33299,7 @@
         <v>1061</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E5" s="104">
         <v>1284</v>
@@ -33163,13 +33319,13 @@
         <v>1063</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -33249,13 +33405,13 @@
         <v>1061</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E1" s="23">
         <v>1284</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -33269,13 +33425,13 @@
         <v>1286</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E2" s="104">
         <v>1284</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -33380,13 +33536,13 @@
         <v>1061</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E1" s="104">
         <v>1284</v>
       </c>
       <c r="F1" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -33420,13 +33576,13 @@
         <v>1061</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E3" s="104">
         <v>1284</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -33504,7 +33660,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33518,7 +33674,7 @@
         <v>1094</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33529,10 +33685,10 @@
         <v>1161</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D3" s="102" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
   </sheetData>
@@ -33569,13 +33725,13 @@
         <v>799</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D1" s="104">
         <v>1284</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -33603,13 +33759,13 @@
         <v>799</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D3" s="104">
         <v>1284</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -33685,13 +33841,13 @@
         <v>799</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D1" s="104">
         <v>1284</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -33745,13 +33901,13 @@
         <v>1087</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -33884,34 +34040,34 @@
         <v>1284</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F4" s="104" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -33948,7 +34104,7 @@
         <v>1284</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33996,7 +34152,7 @@
         <v>1284</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -34042,7 +34198,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -34120,17 +34276,17 @@
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="105" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G2" s="105" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -34138,19 +34294,19 @@
         <v>1221</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="G3" s="104" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
@@ -34260,10 +34416,10 @@
         <v>193</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -34271,10 +34427,10 @@
         <v>651</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -34282,10 +34438,10 @@
         <v>183</v>
       </c>
       <c r="B13" s="99" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -34293,10 +34449,10 @@
         <v>1159</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -34412,10 +34568,10 @@
         <v>193</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -34423,10 +34579,10 @@
         <v>651</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -34434,10 +34590,10 @@
         <v>183</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -34445,10 +34601,10 @@
         <v>1159</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -34520,16 +34676,16 @@
         <v>1284</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C2" s="27">
         <v>2</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G2" s="102">
         <v>1284001</v>
@@ -34543,16 +34699,16 @@
         <v>1221</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C3" s="104">
         <v>2</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="G3" s="102">
         <v>1221001</v>
@@ -34639,10 +34795,10 @@
         <v>1063</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -34659,7 +34815,7 @@
         <v>1043</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -34722,7 +34878,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34780,7 +34936,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -34872,17 +35028,17 @@
         <v>1284</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C2" s="104" t="s">
         <v>988</v>
       </c>
       <c r="D2" s="104"/>
       <c r="E2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F2" s="106" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G2" s="102">
         <v>1284002</v>
@@ -34897,16 +35053,16 @@
         <v>1221</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C3" s="104" t="s">
         <v>988</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="G3" s="102">
         <v>1221002</v>
@@ -34949,7 +35105,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -35007,7 +35163,7 @@
         <v>1094</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -35076,7 +35232,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35166,7 +35322,7 @@
         <v>1284</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35222,7 +35378,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -35321,7 +35477,7 @@
         <v>1094</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -35329,10 +35485,10 @@
         <v>159</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -35381,10 +35537,10 @@
         <v>997</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -35576,7 +35732,7 @@
         <v>220</v>
       </c>
       <c r="O4" s="102" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="P4" s="105" t="s">
         <v>1014</v>

--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="126" activeTab="128"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="145" activeTab="147"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -158,6 +158,8 @@
     <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId144"/>
     <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId145"/>
     <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId146"/>
+    <sheet name="Banking Reconciliation" sheetId="152" r:id="rId147"/>
+    <sheet name="Banking Reconciliation MPL" sheetId="153" r:id="rId148"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -169,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6205" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6230" uniqueCount="1858">
   <si>
     <t>Description</t>
   </si>
@@ -5685,6 +5687,66 @@
   </si>
   <si>
     <t>AutoGlobalBrand 07March2021 16:48:57</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Transaction Number</t>
+  </si>
+  <si>
+    <t>Statement Date</t>
+  </si>
+  <si>
+    <t>4/13/2021</t>
+  </si>
+  <si>
+    <t>Statement No</t>
+  </si>
+  <si>
+    <t>Bank Acc. No</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Local Account No</t>
+  </si>
+  <si>
+    <t>Reconcilition Date</t>
+  </si>
+  <si>
+    <t>Trans No</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>629053380011</t>
+  </si>
+  <si>
+    <t>6006000</t>
+  </si>
+  <si>
+    <t>6006101</t>
+  </si>
+  <si>
+    <t>1221450009</t>
+  </si>
+  <si>
+    <t>1221100093</t>
+  </si>
+  <si>
+    <t>79,809.63</t>
   </si>
 </sst>
 </file>
@@ -12479,7 +12541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14164,6 +14226,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B2" s="105"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B3" s="105"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B5" s="102">
+        <v>1221002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="104" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D1" s="102" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H1" s="102" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I1" s="102" t="s">
+        <v>1850</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="104">
+        <v>1221</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>996</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>1857</v>
+      </c>
+      <c r="J2" s="102" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite\branches\bau_environment\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E85F19-10CD-4643-9260-F34F0813B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="145" activeTab="147"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="142" activeTab="145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6230" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6238" uniqueCount="1859">
   <si>
     <t>Description</t>
   </si>
@@ -5587,9 +5588,6 @@
     <t>Zip Code</t>
   </si>
   <si>
-    <t>05/30/2021</t>
-  </si>
-  <si>
     <t>BB011111</t>
   </si>
   <si>
@@ -5747,12 +5745,18 @@
   </si>
   <si>
     <t>79,809.63</t>
+  </si>
+  <si>
+    <t>10/30/2021</t>
+  </si>
+  <si>
+    <t>2128_GlobalVendor 16August2021 20:41:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6263,7 +6267,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6540,14 +6544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6619,8 +6623,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6628,7 +6632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6759,7 +6763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6847,7 +6851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6400-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -7103,7 +7107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7155,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6600-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7349,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7405,7 +7409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7454,7 +7458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7516,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6A00-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -7906,7 +7910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6B00-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -8082,11 +8086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6C00-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8205,7 +8209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8349,7 +8353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6D00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8453,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6E00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8505,7 +8509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6F00-000000000000}">
   <dimension ref="A1:BO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9572,7 +9576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9648,7 +9652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9727,7 +9731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9867,7 +9871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9918,7 +9922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10056,7 +10060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10170,7 +10174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7600-000000000000}">
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10544,7 +10548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10694,7 +10698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7700-000000000000}">
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11067,7 +11071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7800-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11140,7 +11144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7900-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11252,7 +11256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11298,7 +11302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7B00-000000000000}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11720,7 +11724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7C00-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11907,8 +11911,8 @@
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-7C00-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-7C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -11916,7 +11920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12078,8 +12082,8 @@
     <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-7D00-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-7D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12087,8 +12091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7E00-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -12098,9 +12102,7 @@
   <cols>
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="102" collapsed="1"/>
-    <col min="5" max="7" width="9.140625" style="102"/>
-    <col min="8" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12122,10 +12124,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1809</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12133,13 +12135,13 @@
         <v>658</v>
       </c>
       <c r="B3" s="105" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C3" s="105" t="s">
         <v>1825</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="D3" s="102" t="s">
         <v>1826</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12147,13 +12149,13 @@
         <v>820</v>
       </c>
       <c r="B4" s="105" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C4" s="102" t="s">
         <v>1828</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="D4" s="102" t="s">
         <v>1829</v>
-      </c>
-      <c r="D4" s="102" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12167,7 +12169,7 @@
         <v>611</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12175,13 +12177,13 @@
         <v>1164</v>
       </c>
       <c r="B6" s="105" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C6" s="105" t="s">
         <v>1815</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>1816</v>
-      </c>
       <c r="D6" s="102" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12195,7 +12197,7 @@
         <v>871</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12203,13 +12205,13 @@
         <v>870</v>
       </c>
       <c r="B8" s="102" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C8" s="102" t="s">
         <v>1817</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>1818</v>
-      </c>
       <c r="D8" s="102" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12217,10 +12219,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="76" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>1819</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>1820</v>
       </c>
       <c r="D9" s="102" t="s">
         <v>215</v>
@@ -12231,10 +12233,10 @@
         <v>1165</v>
       </c>
       <c r="B10" s="105" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C10" s="105" t="s">
         <v>1821</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12264,10 +12266,10 @@
         <v>1168</v>
       </c>
       <c r="B13" s="102" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C13" s="102" t="s">
         <v>1823</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12310,8 +12312,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2" display="2113Auto01@oglivy.com"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-7E00-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId2" display="2113Auto01@oglivy.com" xr:uid="{00000000-0004-0000-7E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12319,8 +12321,8 @@
 </file>
 
 <file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7F00-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -12330,8 +12332,7 @@
   <cols>
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.140625" style="102"/>
-    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12350,10 +12351,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1809</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12367,10 +12368,10 @@
         <v>659</v>
       </c>
       <c r="B4" s="105" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>1835</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12384,10 +12385,10 @@
         <v>660</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12406,10 +12407,10 @@
         <v>1164</v>
       </c>
       <c r="B8" s="105" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C8" s="105" t="s">
         <v>1815</v>
-      </c>
-      <c r="C8" s="105" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12428,10 +12429,10 @@
         <v>870</v>
       </c>
       <c r="B10" s="102" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>1817</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12439,10 +12440,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="76" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>1819</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12450,10 +12451,10 @@
         <v>1165</v>
       </c>
       <c r="B12" s="105" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>1821</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12483,10 +12484,10 @@
         <v>1168</v>
       </c>
       <c r="B15" s="102" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C15" s="102" t="s">
         <v>1823</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12529,8 +12530,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-7F00-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com" xr:uid="{00000000-0004-0000-7F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12538,8 +12539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -12550,8 +12551,7 @@
     <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="38.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="9.140625" style="102"/>
-    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12570,10 +12570,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="102" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1809</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12587,10 +12587,10 @@
         <v>1171</v>
       </c>
       <c r="B4" s="105" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>1811</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12604,10 +12604,10 @@
         <v>1162</v>
       </c>
       <c r="B6" s="105" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>1813</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12626,10 +12626,10 @@
         <v>1164</v>
       </c>
       <c r="B8" s="105" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C8" s="105" t="s">
         <v>1815</v>
-      </c>
-      <c r="C8" s="105" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12648,10 +12648,10 @@
         <v>870</v>
       </c>
       <c r="B10" s="102" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>1817</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12659,10 +12659,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="76" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>1819</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12670,10 +12670,10 @@
         <v>1165</v>
       </c>
       <c r="B12" s="105" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>1821</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12703,10 +12703,10 @@
         <v>1168</v>
       </c>
       <c r="B15" s="102" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C15" s="102" t="s">
         <v>1823</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -12749,8 +12749,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-8000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId2" display="2113Auto01@oglivy.com" xr:uid="{00000000-0004-0000-8000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -12758,7 +12758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12799,7 +12799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12867,7 +12867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12947,7 +12947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13027,7 +13027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13110,7 +13110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13210,8 +13210,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-8500-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-8500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -13219,7 +13219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8600-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13319,8 +13319,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-8600-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-8600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -13328,7 +13328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8700-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13388,7 +13388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8800-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13448,7 +13448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8900-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13497,7 +13497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13557,7 +13557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13598,7 +13598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8B00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13661,7 +13661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8C00-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13711,11 +13711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8D00-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13876,7 +13876,7 @@
         <v>1184</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13928,7 +13928,7 @@
       <c r="B15" s="104"/>
       <c r="C15" s="104"/>
       <c r="D15" s="17" t="s">
-        <v>1804</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13943,9 +13943,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-8D00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-8D00-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-8D00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -13953,11 +13953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8E00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14042,14 +14042,14 @@
         <v>79</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>79</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-8E00-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-8E00-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-8E00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -14057,11 +14057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-8F00-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14071,7 +14071,7 @@
     <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>181</v>
       </c>
@@ -14081,15 +14081,18 @@
       <c r="C1" s="102">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="102">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>26</v>
       </c>
@@ -14099,8 +14102,11 @@
       <c r="C3" s="76" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="76" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>836</v>
       </c>
@@ -14110,8 +14116,11 @@
       <c r="C4" s="102">
         <v>958647231</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="102">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>1177</v>
       </c>
@@ -14121,23 +14130,27 @@
       <c r="C5" s="102" t="s">
         <v>79</v>
       </c>
+      <c r="D5" s="102" t="s">
+        <v>611</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-8F00-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-8F00-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{72504A4E-A5D4-48C6-9A96-5435C4E345F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-9000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14147,7 +14160,7 @@
     <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>181</v>
       </c>
@@ -14157,13 +14170,16 @@
       <c r="C1" s="102">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="102">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>178</v>
       </c>
@@ -14172,6 +14188,9 @@
       </c>
       <c r="C3" s="102" t="s">
         <v>79</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -14181,11 +14200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-9100-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14195,7 +14214,7 @@
     <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>181</v>
       </c>
@@ -14205,14 +14224,17 @@
       <c r="C1" s="102">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="102">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>1182</v>
       </c>
       <c r="B2" s="106"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>178</v>
       </c>
@@ -14221,6 +14243,9 @@
       </c>
       <c r="C3" s="102" t="s">
         <v>79</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -14230,7 +14255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-9200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14254,27 +14279,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B2" s="105"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B3" s="105"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B4" s="105" t="s">
         <v>1840</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B5" s="102">
         <v>1221002</v>
@@ -14282,14 +14307,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-9300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14303,31 +14329,31 @@
         <v>1000</v>
       </c>
       <c r="B1" s="102" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1" s="102" t="s">
         <v>1843</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="D1" s="102" t="s">
         <v>1844</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="E1" s="102" t="s">
         <v>1845</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="F1" s="102" t="s">
         <v>1846</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="G1" s="102" t="s">
         <v>1847</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="H1" s="102" t="s">
         <v>1848</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="I1" s="102" t="s">
         <v>1849</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="J1" s="102" t="s">
         <v>1850</v>
-      </c>
-      <c r="J1" s="102" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14335,28 +14361,28 @@
         <v>1221</v>
       </c>
       <c r="B2" s="102" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C2" s="102" t="s">
         <v>1852</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="D2" s="102" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="E2" s="102" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>1854</v>
       </c>
-      <c r="E2" s="102" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F2" s="102" t="s">
+      <c r="G2" s="102" t="s">
         <v>1855</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>1856</v>
       </c>
       <c r="H2" s="102" t="s">
         <v>996</v>
       </c>
       <c r="I2" s="102" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="J2" s="102" t="s">
         <v>1493</v>
@@ -14364,11 +14390,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -14619,7 +14646,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -14627,14 +14654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14899,7 +14926,7 @@
         <v>1526</v>
       </c>
       <c r="G11" s="105" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14922,7 +14949,7 @@
         <v>1526</v>
       </c>
       <c r="G12" s="105" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15298,7 +15325,7 @@
         <v>1795</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>1804</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -15311,12 +15338,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -15324,7 +15351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -15694,7 +15721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -16014,7 +16041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -16294,60 +16321,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FJ154"/>
+  <dimension ref="A1:FK154"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.28515625" style="104" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="165" width="32" style="27" customWidth="1" collapsed="1"/>
-    <col min="166" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="3" width="39.28515625" style="104" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="166" width="32" style="27" customWidth="1" collapsed="1"/>
+    <col min="167" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>1688</v>
       </c>
-      <c r="C1" s="85">
+      <c r="C1" s="85" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1" s="85">
         <v>2128</v>
       </c>
-      <c r="D1" s="13">
+      <c r="E1" s="13">
         <v>1259</v>
       </c>
-      <c r="E1" s="13">
+      <c r="F1" s="13">
         <v>1301</v>
       </c>
-      <c r="F1" s="13">
+      <c r="G1" s="13">
         <v>1309</v>
       </c>
-      <c r="G1" s="13">
+      <c r="H1" s="13">
         <v>1240</v>
       </c>
-      <c r="H1" s="13">
+      <c r="I1" s="13">
         <v>1315</v>
       </c>
-      <c r="I1" s="13">
+      <c r="J1" s="13">
         <v>1321</v>
       </c>
-      <c r="J1" s="13">
+      <c r="K1" s="13">
         <v>1216</v>
       </c>
-      <c r="K1" s="13">
+      <c r="L1" s="13">
         <v>1289</v>
       </c>
-      <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -16501,1343 +16530,1480 @@
       <c r="FG1" s="13"/>
       <c r="FH1" s="13"/>
       <c r="FI1" s="13"/>
-      <c r="FJ1" t="s">
+      <c r="FJ1" s="13"/>
+      <c r="FK1" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="2" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>882</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="C2" s="102" t="s">
         <v>1619</v>
-      </c>
-      <c r="C2" s="106" t="s">
-        <v>1689</v>
       </c>
       <c r="D2" s="106" t="s">
         <v>1689</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="106" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="3" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>1256</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="C3" s="102" t="s">
         <v>1620</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1690</v>
       </c>
       <c r="D3" s="104" t="s">
         <v>1690</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="104" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F3" s="102" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="4" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>1257</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="C4" s="102" t="s">
         <v>1621</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1691</v>
       </c>
       <c r="D4" s="106" t="s">
         <v>1691</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="106" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F4" s="102" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="5" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>1258</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="C5" s="102" t="s">
         <v>1622</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>1692</v>
       </c>
       <c r="D5" s="104" t="s">
         <v>1692</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="104" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F5" s="102" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="6" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>1259</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="C6" s="102" t="s">
         <v>1623</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>1693</v>
       </c>
       <c r="D6" s="106" t="s">
         <v>1693</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="106" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F6" s="102" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="7" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>1260</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="C7" s="102" t="s">
         <v>1624</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>1694</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>1694</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="8" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
         <v>1261</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="C8" s="102" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>611</v>
       </c>
       <c r="D8" s="104" t="s">
         <v>611</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="104" t="s">
+        <v>611</v>
+      </c>
+      <c r="F8" s="102" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
         <v>1262</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="D9" s="102" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="10" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>1263</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="D10" s="102" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="11" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
         <v>1264</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="D11" s="102" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="12" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
         <v>1265</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="D12" s="102" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="13" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
         <v>1266</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="D13" s="102" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="14" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
         <v>1267</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="D14" s="102" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="15" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
         <v>1268</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="D15" s="102" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="16" spans="1:166" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
         <v>1269</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="D16" s="102" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
         <v>1270</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="D17" s="102" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
         <v>1271</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="D18" s="102" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="B19" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C19" s="102" t="s">
+      <c r="B19">
+        <v>1009910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D19" s="102" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
         <v>1635</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="B20" s="102" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D20" s="102" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
         <v>1272</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="102" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="102" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
         <v>1452</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="102">
+        <v>1007849</v>
+      </c>
+      <c r="D22" s="102" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
         <v>1453</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="102" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D23" s="102" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="102"/>
+      <c r="C24" s="105" t="s">
         <v>987</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="D24" s="102" t="s">
         <v>1696</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="E24" s="102" t="s">
         <v>1695</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="F24" s="102" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1275</v>
       </c>
       <c r="B25" s="102"/>
-      <c r="C25" s="102" t="s">
-        <v>1530</v>
-      </c>
+      <c r="C25" s="102"/>
       <c r="D25" s="102" t="s">
         <v>1530</v>
       </c>
       <c r="E25" s="102" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="102" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1276</v>
       </c>
       <c r="B26" s="102"/>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="102"/>
+      <c r="D26" s="102" t="s">
         <v>1696</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="F26" s="102" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1277</v>
       </c>
       <c r="B27" s="102"/>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="F27" s="102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1278</v>
       </c>
       <c r="B28" s="102"/>
-      <c r="C28" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1279</v>
       </c>
       <c r="B29" s="102"/>
-      <c r="C29" t="s">
+      <c r="C29" s="102"/>
+      <c r="D29" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1282</v>
       </c>
       <c r="B30" s="102"/>
       <c r="C30" s="102"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="102"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1283</v>
       </c>
       <c r="B31" s="102"/>
-      <c r="C31" t="s">
+      <c r="C31" s="102"/>
+      <c r="D31" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1284</v>
       </c>
       <c r="B32" s="102"/>
-      <c r="C32" t="s">
+      <c r="C32" s="102"/>
+      <c r="D32" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1285</v>
       </c>
       <c r="B33" s="102"/>
-      <c r="C33" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1286</v>
       </c>
       <c r="B34" s="102"/>
-      <c r="C34" t="s">
+      <c r="C34" s="102"/>
+      <c r="D34" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="102"/>
-      <c r="C35" t="s">
+      <c r="C35" s="102"/>
+      <c r="D35" t="s">
         <v>1725</v>
       </c>
-      <c r="D35" s="102"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="102"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
       <c r="B36" s="102"/>
-      <c r="C36"/>
-      <c r="D36" s="102"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="102"/>
+      <c r="D36"/>
+      <c r="E36" s="102"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>960</v>
       </c>
       <c r="B37" s="102"/>
-      <c r="C37" t="s">
+      <c r="C37" s="102"/>
+      <c r="D37" t="s">
         <v>1717</v>
       </c>
-      <c r="D37" s="102"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="102"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1287</v>
       </c>
       <c r="B38" s="102"/>
-      <c r="C38" t="s">
+      <c r="C38" s="102"/>
+      <c r="D38" t="s">
         <v>1530</v>
       </c>
-      <c r="D38" s="102"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="102"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1288</v>
       </c>
       <c r="B39" s="102"/>
-      <c r="C39" t="s">
+      <c r="C39" s="102"/>
+      <c r="D39" t="s">
         <v>1717</v>
       </c>
-      <c r="D39" s="102"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="102"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1289</v>
       </c>
       <c r="B40" s="102"/>
-      <c r="C40" t="s">
+      <c r="C40" s="102"/>
+      <c r="D40" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="102"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="102"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="102" t="s">
         <v>1290</v>
       </c>
       <c r="B41" s="102"/>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="102"/>
+      <c r="D41" s="102" t="s">
         <v>1717</v>
       </c>
-      <c r="D41" s="102"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="102"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1291</v>
       </c>
       <c r="B42" s="102"/>
-      <c r="C42" t="s">
+      <c r="C42" s="102"/>
+      <c r="D42" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1292</v>
       </c>
       <c r="B43" s="102"/>
-      <c r="C43" t="s">
+      <c r="C43" s="102"/>
+      <c r="D43" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1293</v>
       </c>
       <c r="B44" s="102"/>
-      <c r="C44" t="s">
+      <c r="C44" s="102"/>
+      <c r="D44" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1294</v>
       </c>
       <c r="B45" s="102"/>
-      <c r="C45" t="s">
+      <c r="C45" s="102"/>
+      <c r="D45" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1295</v>
       </c>
       <c r="B46" s="102"/>
-      <c r="C46" t="s">
+      <c r="C46" s="102"/>
+      <c r="D46" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1296</v>
       </c>
       <c r="B47" s="102"/>
-      <c r="C47" t="s">
+      <c r="C47" s="102"/>
+      <c r="D47" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1297</v>
       </c>
       <c r="B48" s="102"/>
-      <c r="C48" s="105" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="105" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1298</v>
       </c>
       <c r="B49" s="102"/>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="102"/>
+      <c r="D49" s="102" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1299</v>
       </c>
       <c r="B50" s="102"/>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="102"/>
+      <c r="D50" s="105" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1300</v>
       </c>
       <c r="B51" s="102"/>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="102"/>
+      <c r="D51" s="102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="102" t="s">
         <v>1301</v>
       </c>
       <c r="B52" s="102"/>
-      <c r="C52" s="105" t="s">
+      <c r="C52" s="102"/>
+      <c r="D52" s="105" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1302</v>
       </c>
       <c r="B53" s="102"/>
-      <c r="C53" t="s">
+      <c r="C53" s="102"/>
+      <c r="D53" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1303</v>
       </c>
       <c r="B54" s="102"/>
-      <c r="C54" t="s">
+      <c r="C54" s="102"/>
+      <c r="D54" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1304</v>
       </c>
       <c r="B55" s="102"/>
-      <c r="C55" t="s">
+      <c r="C55" s="102"/>
+      <c r="D55" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1305</v>
       </c>
       <c r="B56" s="102"/>
-      <c r="C56" t="s">
+      <c r="C56" s="102"/>
+      <c r="D56" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1306</v>
       </c>
       <c r="B57" s="102"/>
-      <c r="C57" t="s">
+      <c r="C57" s="102"/>
+      <c r="D57" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1307</v>
       </c>
       <c r="B58" s="102"/>
-      <c r="C58" t="s">
+      <c r="C58" s="102"/>
+      <c r="D58" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="102" t="s">
         <v>1316</v>
       </c>
       <c r="B59" s="102"/>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="102"/>
+      <c r="D59" s="104" t="s">
         <v>1765</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>1765</v>
       </c>
-      <c r="E59" s="102" t="s">
+      <c r="F59" s="102" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="102" t="s">
         <v>1317</v>
       </c>
       <c r="B60" s="102"/>
-      <c r="C60" s="105" t="s">
+      <c r="C60" s="102"/>
+      <c r="D60" s="105" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="102" t="s">
         <v>1318</v>
       </c>
       <c r="B61" s="102"/>
-      <c r="C61" s="105" t="s">
+      <c r="C61" s="102"/>
+      <c r="D61" s="105" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="102" t="s">
         <v>1319</v>
       </c>
       <c r="B62" s="102"/>
-      <c r="C62" s="105" t="s">
+      <c r="C62" s="102"/>
+      <c r="D62" s="105" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="102" t="s">
         <v>652</v>
       </c>
       <c r="B63" s="102"/>
-      <c r="C63" s="105" t="s">
+      <c r="C63" s="102"/>
+      <c r="D63" s="105" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="102" t="s">
         <v>1320</v>
       </c>
       <c r="B64" s="102"/>
-      <c r="C64" t="s">
+      <c r="C64" s="102"/>
+      <c r="D64" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1321</v>
       </c>
       <c r="B65" s="102"/>
-      <c r="C65" t="s">
+      <c r="C65" s="102"/>
+      <c r="D65" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1325</v>
       </c>
       <c r="B66" s="102"/>
       <c r="C66" s="102"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="102"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1326</v>
       </c>
       <c r="B67" s="102"/>
       <c r="C67" s="102"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="102"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1327</v>
       </c>
       <c r="B68" s="102"/>
       <c r="C68" s="102"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="102"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1328</v>
       </c>
       <c r="B69" s="102"/>
       <c r="C69" s="102"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="102"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1329</v>
       </c>
       <c r="B70" s="102"/>
       <c r="C70" s="102"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="102"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1330</v>
       </c>
       <c r="B71" s="102"/>
       <c r="C71" s="102"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="102"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1331</v>
       </c>
       <c r="B72" s="102"/>
       <c r="C72" s="102"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="102"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1332</v>
       </c>
       <c r="B73" s="102"/>
       <c r="C73" s="102"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="102"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1333</v>
       </c>
       <c r="B74" s="102"/>
       <c r="C74" s="102"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="102"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1335</v>
       </c>
       <c r="B75" s="102"/>
       <c r="C75" s="102"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="102"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1359</v>
       </c>
       <c r="B76" s="102"/>
-      <c r="C76" t="s">
+      <c r="C76" s="102"/>
+      <c r="D76" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="104" t="s">
         <v>1365</v>
       </c>
-      <c r="B77" s="106" t="s">
+      <c r="C77" s="106" t="s">
         <v>1695</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>1366</v>
       </c>
-      <c r="B78" s="106" t="s">
+      <c r="C78" s="106" t="s">
         <v>1789</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1367</v>
       </c>
       <c r="B79" s="102"/>
-      <c r="C79" s="106"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="102"/>
+      <c r="D79" s="106"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1368</v>
       </c>
       <c r="B80" s="102"/>
-      <c r="C80" s="106"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="102"/>
+      <c r="D80" s="106"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1369</v>
       </c>
       <c r="B81" s="102"/>
-      <c r="C81" s="106"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="102"/>
+      <c r="D81" s="106"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1370</v>
       </c>
       <c r="B82" s="102"/>
-      <c r="C82" s="106"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="102"/>
+      <c r="D82" s="106"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1371</v>
       </c>
       <c r="B83" s="102"/>
-      <c r="C83" s="106"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="102"/>
+      <c r="D83" s="106"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1372</v>
       </c>
       <c r="B84" s="102"/>
-      <c r="C84" s="106"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="102"/>
+      <c r="D84" s="106"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1373</v>
       </c>
       <c r="B85" s="102"/>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="102"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1374</v>
       </c>
       <c r="B86" s="102"/>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="102"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1375</v>
       </c>
       <c r="B87" s="102"/>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="102"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1376</v>
       </c>
       <c r="B88" s="102"/>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="102"/>
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1377</v>
       </c>
       <c r="B89" s="102"/>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="102"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1380</v>
       </c>
       <c r="B90" s="102"/>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="102"/>
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1381</v>
       </c>
       <c r="B91" s="102"/>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="102"/>
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1382</v>
       </c>
       <c r="B92" s="102"/>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="102"/>
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1383</v>
       </c>
       <c r="B93" s="102"/>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="102"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1384</v>
       </c>
       <c r="B94" s="102"/>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="102"/>
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1385</v>
       </c>
       <c r="B95" s="102"/>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="102"/>
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1386</v>
       </c>
       <c r="B96" s="102"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="102"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1387</v>
       </c>
       <c r="B97" s="102"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="102"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1388</v>
       </c>
       <c r="B98" s="102"/>
-      <c r="C98" t="s">
+      <c r="C98" s="102"/>
+      <c r="D98" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1389</v>
       </c>
       <c r="B99" s="102"/>
-      <c r="C99" s="106"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="102"/>
+      <c r="D99" s="106"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1390</v>
       </c>
       <c r="B100" s="102"/>
-      <c r="C100" s="106"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="102"/>
+      <c r="D100" s="106"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="104" t="s">
         <v>1391</v>
       </c>
-      <c r="C101" s="106" t="s">
+      <c r="D101" s="106" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="104" t="s">
         <v>1392</v>
       </c>
-      <c r="C102" s="102" t="s">
+      <c r="D102" s="102" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>1393</v>
       </c>
-      <c r="C103" s="106" t="s">
+      <c r="D103" s="106" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1397</v>
       </c>
       <c r="B104" s="102"/>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="102"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1399</v>
       </c>
       <c r="B105" s="102"/>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="102"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1400</v>
       </c>
       <c r="B106" s="102"/>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="102"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1401</v>
       </c>
       <c r="B107" s="102"/>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="102"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="102" t="s">
         <v>1402</v>
       </c>
       <c r="B108" s="102"/>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="102"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1403</v>
       </c>
       <c r="B109" s="102"/>
-      <c r="D109"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="102"/>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1404</v>
       </c>
       <c r="B110" s="102"/>
-      <c r="D110"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="102"/>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1405</v>
       </c>
       <c r="B111" s="102"/>
-      <c r="C111" t="s">
+      <c r="C111" s="102"/>
+      <c r="D111" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1406</v>
       </c>
       <c r="B112" s="102"/>
-      <c r="C112" t="s">
+      <c r="C112" s="102"/>
+      <c r="D112" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1407</v>
       </c>
       <c r="B113" s="102"/>
-      <c r="C113" t="s">
+      <c r="C113" s="102"/>
+      <c r="D113" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1408</v>
       </c>
       <c r="B114" s="102"/>
-      <c r="C114" t="s">
+      <c r="C114" s="102"/>
+      <c r="D114" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1409</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="102"/>
+      <c r="C115" t="s">
         <v>1790</v>
       </c>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1410</v>
       </c>
       <c r="B116" s="102"/>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="102"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1411</v>
       </c>
       <c r="B117" s="102"/>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="102"/>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="104" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="104" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1414</v>
       </c>
       <c r="B120" s="102"/>
-      <c r="C120" t="s">
+      <c r="C120" s="102"/>
+      <c r="D120" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1439</v>
       </c>
       <c r="B121" s="102"/>
-      <c r="C121" t="s">
+      <c r="C121" s="102"/>
+      <c r="D121" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1440</v>
       </c>
       <c r="B122" s="102"/>
-      <c r="C122" t="s">
+      <c r="C122" s="102"/>
+      <c r="D122" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1441</v>
       </c>
       <c r="B123" s="102"/>
-      <c r="C123" t="s">
+      <c r="C123" s="102"/>
+      <c r="D123" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1443</v>
       </c>
       <c r="B125" s="102"/>
-      <c r="C125" t="s">
+      <c r="C125" s="102"/>
+      <c r="D125" t="s">
         <v>1729</v>
       </c>
-      <c r="D125" s="102" t="s">
+      <c r="E125" s="102" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1445</v>
       </c>
       <c r="B126" s="102"/>
-      <c r="C126" t="s">
+      <c r="C126" s="102"/>
+      <c r="D126" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1446</v>
       </c>
       <c r="B127" s="102"/>
-      <c r="C127" t="s">
+      <c r="C127" s="102"/>
+      <c r="D127" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1447</v>
       </c>
       <c r="B128" s="102"/>
-      <c r="C128" t="s">
+      <c r="C128" s="102"/>
+      <c r="D128" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1448</v>
       </c>
       <c r="B129" s="102"/>
-      <c r="C129" t="s">
+      <c r="C129" s="102"/>
+      <c r="D129" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1449</v>
       </c>
       <c r="B130" s="102"/>
-      <c r="C130" t="s">
+      <c r="C130" s="102"/>
+      <c r="D130" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1450</v>
       </c>
       <c r="B131" s="102"/>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C131" s="102"/>
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1451</v>
       </c>
       <c r="B132" s="102"/>
-      <c r="C132" t="s">
+      <c r="C132" s="102"/>
+      <c r="D132" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1452</v>
       </c>
       <c r="B133" s="102"/>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C133" s="102"/>
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1453</v>
       </c>
       <c r="B134" s="102"/>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C134" s="102"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1456</v>
       </c>
       <c r="B135" s="102"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C135" s="102"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1462</v>
       </c>
       <c r="B136" s="102"/>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C136" s="102"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1468</v>
       </c>
       <c r="B137" s="102"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C137" s="102"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1469</v>
       </c>
       <c r="B138" s="102"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C138" s="102"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>161</v>
       </c>
       <c r="B139" s="102"/>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C139" s="102"/>
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>1496</v>
       </c>
-      <c r="C140" s="102"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D140" s="102"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1561</v>
       </c>
       <c r="B141" s="102"/>
-      <c r="C141" t="s">
+      <c r="C141" s="102"/>
+      <c r="D141" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1569</v>
       </c>
       <c r="B142" s="102"/>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C142" s="102"/>
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1591</v>
       </c>
       <c r="B143" s="102"/>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C143" s="102"/>
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>1442</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="D144" s="27" t="s">
         <v>1763</v>
       </c>
-      <c r="H144" s="27" t="s">
+      <c r="I144" s="27" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="102" t="s">
         <v>1777</v>
       </c>
       <c r="B145" s="102"/>
-      <c r="C145" s="106" t="s">
+      <c r="C145" s="102"/>
+      <c r="D145" s="106" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="102" t="s">
         <v>1778</v>
       </c>
       <c r="B146" s="102"/>
-      <c r="C146" s="106" t="s">
+      <c r="C146" s="102"/>
+      <c r="D146" s="106" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="102" t="s">
         <v>1779</v>
       </c>
       <c r="B147" s="102"/>
-      <c r="C147" s="106" t="s">
+      <c r="C147" s="102"/>
+      <c r="D147" s="106" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="102" t="s">
         <v>1780</v>
       </c>
       <c r="B148" s="102"/>
-      <c r="C148" s="106" t="s">
+      <c r="C148" s="102"/>
+      <c r="D148" s="106" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="102" t="s">
         <v>1781</v>
       </c>
       <c r="B149" s="102"/>
-      <c r="C149" s="106" t="s">
+      <c r="C149" s="102"/>
+      <c r="D149" s="106" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="102" t="s">
         <v>1782</v>
       </c>
       <c r="B150" s="102"/>
-      <c r="C150" s="106" t="s">
+      <c r="C150" s="102"/>
+      <c r="D150" s="106" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="102" t="s">
         <v>1783</v>
       </c>
       <c r="B151" s="102"/>
-      <c r="C151" s="106" t="s">
+      <c r="C151" s="102"/>
+      <c r="D151" s="106" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="102" t="s">
         <v>1784</v>
       </c>
       <c r="B152" s="102"/>
-      <c r="C152" s="106" t="s">
+      <c r="C152" s="102"/>
+      <c r="D152" s="106" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="102" t="s">
         <v>1785</v>
       </c>
       <c r="B153" s="102"/>
-      <c r="C153" s="106" t="s">
+      <c r="C153" s="102"/>
+      <c r="D153" s="106" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="102" t="s">
         <v>1786</v>
       </c>
       <c r="B154" s="102"/>
-      <c r="C154" s="106" t="s">
+      <c r="C154" s="102"/>
+      <c r="D154" s="106" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -17848,7 +18014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -18231,7 +18397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -18307,7 +18473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -18350,7 +18516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18390,7 +18556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18814,7 +18980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -19145,11 +19311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6:AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19797,7 +19963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19882,7 +20048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -20212,7 +20378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20713,7 +20879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -21895,7 +22061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21980,7 +22146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -22302,7 +22468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22862,7 +23028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22930,7 +23096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
@@ -23265,7 +23431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23825,7 +23991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23899,7 +24065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24234,7 +24400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24794,7 +24960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24868,7 +25034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -26922,7 +27088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27257,7 +27423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27817,7 +27983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27891,7 +28057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27955,7 +28121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28029,7 +28195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28104,7 +28270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28179,7 +28345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28255,7 +28421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28317,7 +28483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28379,7 +28545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -28624,7 +28790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -28854,7 +29020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -28897,7 +29063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -28943,7 +29109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -29001,7 +29167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -29301,7 +29467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -29365,7 +29531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -29435,7 +29601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -29987,12 +30153,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-3800-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-3800-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-3800-000002000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-3800-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-3800-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-3800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -30000,7 +30166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30166,10 +30332,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="1307AutomationUser@sudler.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="1307AutomationUser@sudler.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="1307AutomationUser@sudler.com"/>
-    <hyperlink ref="E2" r:id="rId4" display="1307AutomationUser@sudler.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="1307AutomationUser@sudler.com" xr:uid="{00000000-0004-0000-3900-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="1307AutomationUser@sudler.com" xr:uid="{00000000-0004-0000-3900-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" display="1307AutomationUser@sudler.com" xr:uid="{00000000-0004-0000-3900-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId4" display="1307AutomationUser@sudler.com" xr:uid="{00000000-0004-0000-3900-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -30177,7 +30343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -30569,8 +30735,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-3A00-000000000000}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{00000000-0004-0000-3A00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -30578,7 +30744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -30745,7 +30911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -30803,7 +30969,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="1307TestEmployeeAutomation1234@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="1307TestEmployeeAutomation1234@gmail.com" xr:uid="{00000000-0004-0000-3B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -30811,7 +30977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -30879,7 +31045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -31230,7 +31396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -31451,7 +31617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -31512,7 +31678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -31573,7 +31739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -31796,7 +31962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32038,7 +32204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32096,7 +32262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32340,7 +32506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32417,7 +32583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32475,7 +32641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32731,7 +32897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -32789,7 +32955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33031,7 +33197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33273,7 +33439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33331,7 +33497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33389,7 +33555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33575,7 +33741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33706,7 +33872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -33837,7 +34003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33898,7 +34064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -34014,7 +34180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -34134,7 +34300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34277,7 +34443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34319,7 +34485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34367,7 +34533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34426,7 +34592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34516,7 +34682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34669,7 +34835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34820,7 +34986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -34924,7 +35090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35051,7 +35217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35108,7 +35274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35172,7 +35338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5B00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35278,7 +35444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5C00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35335,7 +35501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5D00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35399,7 +35565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5E00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35491,7 +35657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5F00-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35547,7 +35713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35644,7 +35810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -35770,7 +35936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-6200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>

--- a/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_UAE_REGRESSION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Nov 2021 Hk HC3\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DB9335-1CE8-4A09-8B16-C3F206DBDC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A23015A-96E6-454D-92B6-84722F9171DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8058" uniqueCount="2122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8054" uniqueCount="2122">
   <si>
     <t>Description</t>
   </si>
@@ -21880,8 +21880,8 @@
   </sheetPr>
   <dimension ref="A1:FK240"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24176,8 +24176,8 @@
   </sheetPr>
   <dimension ref="A1:AV5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24649,30 +24649,6 @@
       <c r="V5" s="99">
         <v>1000</v>
       </c>
-      <c r="W5" s="99" t="s">
-        <v>797</v>
-      </c>
-      <c r="X5" s="99" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Y5" s="99">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="99">
-        <v>250</v>
-      </c>
-      <c r="AA5" s="99" t="s">
-        <v>833</v>
-      </c>
-      <c r="AB5" s="99" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AC5" s="99">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="99">
-        <v>1000</v>
-      </c>
       <c r="AQ5" t="s">
         <v>1096</v>
       </c>
@@ -26313,8 +26289,8 @@
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26561,7 +26537,7 @@
         <v>1955</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F7" s="99" t="s">
         <v>610</v>
@@ -40541,7 +40517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
